--- a/data/train/IncDec-train-944601.xlsx
+++ b/data/train/IncDec-train-944601.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>It goes on to say that the price of coal which fires half of the US power plants has doubled since last year largely because of surging energy use in countries such as China and India</t>
+          <t>Renewable diesel that lowers agricultural emissions is fully compatible with existing diesel assets and has a place at the table too</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,17 +458,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>For example we believe that production tax credits for renewables should be extended at least ten years and apply to as broad a spectrum of renewables as possible</t>
+          <t>In fact Congress is in the midst of playing local politics with the most important energy project in the United States</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>This authority is vested in the Secretary of Energy and has been delegated to the assistant secretary for fossil energy</t>
+          <t>Too often lowincome older persons are faced with the choice of risking their health and comfort by cutting back on energy expenditures or reducing spending for other basic necessities</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Our notforprofit independent status precludes me from choosing between fuels</t>
+          <t>Well in a side note a number of us went to Mexico for an interparliamentary the Friday before Thanksgiving and one of the things that was the highlight of our discussion with the Members of Congreso was the recent decision on the pipeline from Texas natural gas pipeline to northern Mexico because they dontobviously have a lot of resources but not enough production</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,17 +488,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>We have been asking for a number of years for the Department of Energy to do the necessary investigations to start making those kinds of determinations and we dont yet have that information in place</t>
+          <t>The nuclear industry is demanding that you and your constituents the American taxpayer flip the bill for an unnecessary but more importantly unsafe project</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Canada is already the largest supplier of energy to the United States meeting 12 percent of current US petroleum consumption needs and 18 percent of US petroleum imports</t>
+          <t>Mr Stevens you mentioned in your testimony the challenge of the government policies that are picking winners and losers and you specifically mentioned the renewable fuel standards mandate for biomass fuels as a policy that could hurt the longterm sustainability of forests</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,37 +508,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>That fuel switching transferred many jobs out of Appalachia to the western part of the United States</t>
+          <t>I am concerned that you all dont get noticed under the Clean Power Plan for interaction about what is going to happen when the plants close down</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>In that same hearing Ms Angielski we heard testimony that fossil energy will remain a major part of the energy mix in growing nations like India Vietnam Colombia South Africa because the sources are domestic abundant and affordable</t>
+          <t>This authority is vested in the Secretary of Energy and has been delegated to the assistant secretary for fossil energy</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congress should further accelerate the effective date of energyefficiency tax incentives in the Energy Policy Act and fund energy awareness programs at the Department of Energy</t>
+          <t>I am a big trash energy guy</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The first provided an overview of the future of fuels and vehicles</t>
+          <t>Mr Shimkus asked earlier whether climate legislation would raise gasoline and electricity prices</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,47 +548,47 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>We cut back a lot on the energy efficiency programs because we have done so much so far</t>
+          <t>Well from my perspective its put the oil industrys perspective first and the rural communities have taken a lot of abuse through these Small Refinery Exemptions</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OK well it will also have to replace fossil fuel energy generation in addition</t>
+          <t>This continuing improvement has been the result of more efficient engines emission control technologies and cleaner burning fuel</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The Department of Energys 32 billion budget proposal serves as a reminder of the broad range of defense science energy and environmental activities that your agency pursues to perform its really important critical I would say national and energy security missions</t>
+          <t>The conference report established funding for an advanced nuclear fuel recycling program aimed at developing proliferationresistant nuclear fuel recycling and transmutation technologies</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Its very simple Because they have no incentive whatsoever to give access to the resources to oil companies</t>
+          <t>Shutin gas production in the Gulf was 58 billion cubic feet per day or 58 of daily gas production in the Gulf</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Too often lowincome older persons are faced with the choice of risking their health and comfort by cutting back on energy expenditures or reducing spending for other basic necessities</t>
+          <t>The first provided an overview of the future of fuels and vehicles</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,17 +598,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>As the DOE continues to delay honoring its contracts with the utilities to remove spent nuclear fuel from plant sites both the amount of SNF and HLRW stored and the costs associated with storing it increase</t>
+          <t>We cut back a lot on the energy efficiency programs because we have done so much so far</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>The future will belong to the country that builds an energy infrastructure to support a cleaner low carbon economy</t>
+          <t>And then the third reason I think we have seen renaissance in the nuclear area is that the environmental benefits of nuclear energy are being recognized</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,27 +618,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>That said once again our effort has been focused on deployment and although you might note that in FY 12 we dont request any direct funds for RD in natural gas we continually support natural gas vehicles through the Clean Cities Program our deployment arm and we will continue to do so both vehicles and infrastructure</t>
+          <t>If you want to expand on that and also doesnt a twotier system basically already exist since all clean resources other than nuclear have outofmarket payment subsidies and everything that impact their bid price</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Today we are examining a law the Renewable Fuel Standard or RFS that is driving development of those new lowcarbon renewable fuels</t>
+          <t>That is why he established an interagency working group focused on creating economic opportunities for communities impacted by the shift away from fossil fuels</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>And finally the gains in energy efficiency come largely from new technologies and improvement to existing technologies</t>
+          <t>Im surprised Mr Garman didnt sort of agree with what I told him about petroleum</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,17 +648,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3 would additionally allow substitutions of Transportation Control Measures in a SIP without revisiting the SIP approval process or making a new conformity determination provided that the new measures achieve an equal or greater emissions reduction</t>
+          <t>Boutique fuels only result in supply problems when a refinery problem or pipeline outage occurs</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Electricity generated from coal is used in all 50 states</t>
+          <t>But I think you would agree with me that it has been in about the last 10 years or so that it has been used a lot more than it had been because of the necessity of getting some difficult natural gas out of the ground</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,67 +668,67 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rush and others in terms of how do we organize the Department of Energy for the next generation</t>
+          <t>but our ultimate vision is to establish leadership in hydrogen fuel cells</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>We are approaching the dawn of as I made reference to in that film the new American energy era a time of energy abundance security and yes even independence</t>
+          <t>But the idea is to produce or to construct a coal gasification facility that will simultaneously produce electricity and produce hydrogen</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>The United States has such incredible energy abundance</t>
+          <t>Exporting oil just doesnt make any sense</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Independent producers develop 90 percent of domestic wells and produce 85 percent of domestic natural gas</t>
+          <t>OK well it will also have to replace fossil fuel energy generation in addition</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Could you describe the goals of your partnership and also what you hope to learn through these field tests and can you give us a sense of when you think carbon sequestration technology could be sufficiently reliable for deployment and for something we can actually begin to rely upon as we structure legislation that in fact might require the capture and sequestration of carbon</t>
+          <t>Number 2 you have got to have six greenhouse gases so the lowhanging fruit that can be accomplished by changes that reduce other greenhouse gases like methane or NOx any of those the hydrofluorocarbons et cetera can help get rid of it</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Funding of energy efficiency programs is a key piece of such a public benefits program with discretion provided to states</t>
+          <t>bullet First we need a strong and sustained push from Congress and the Administration to support biofuel production including nextgeneration cellulosic ethanol</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Well just to add on that most of the nuclear plant sites in the country have had to add additional storage capacity either in the form of expanding the pools themselves or how to manage the pools or putting them in what is known as dry cask storage</t>
+          <t>Michael McNulty Attachment B clean power group multiemission control strategy materials Clean Power Groups MultiPollutant Emission Control Strategy The power generation sector is a major contributor to US air pollution</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,37 +738,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>So can you explain to why you thinkyou know I realize you decrease emissions but I just am not convinced that that particularly will change much the overall lifecycle of carbon emissions with the batterythe development of the batteries and what it costs to do that when you plug it in how the power is generated</t>
+          <t>That is why Canadas oil sands is nearly as valuable as an example of energy policy done right as it is for the oil itself</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Do you agree or disagree that it is too late to prevent the carbon dioxide emissions from increasing to 450</t>
+          <t>The bill would short circuit the established review process for pending and future LNG export applications</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>You are quoting an unnamed energy publication</t>
+          <t>Towns which adds some common sense to a currently onerous relicensing process for nonfor Federal hydro projects</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>You have already got your nose under the tent with the emissions part of the car</t>
+          <t>According to the Congressional Research Service nuclear research and development has gotten more than 60 or 66 billion in energy research and development funding from 19481998</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,17 +778,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>So this war on coal must stop</t>
+          <t>So maybe someday we have this hole underground it can be used for longterm nuclear storage</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mr Reicher if we do nothing other than roll back EPAs modest steps to reduce carbon emissions are we at risk at losing the clean energy jobs race with China</t>
+          <t>Again we dont have a tax imposed on a person who buys a gas guzzling SUV but we have a gas guzzler tax that we impose on an automobile</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chairman Shimkus I would like to point out one in particular the suspension of the Nuclear Waste Fund which we argued we needed to do</t>
+          <t>We have seen cases in Pavilion Wyoming and in Dimock Pennsylvania where the EPA has also accused oil and gas operators of groundwater contamination from fracking without sufficient evidence to justify those accusations</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,17 +808,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Most of the gas we will find onshore in the future will be unconventional gas that is highercost and lowermargin</t>
+          <t>You would be a real hero if you could get us the energy bill</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>The wood products industry is a leading user of wood fiber and producer and user of carbonneutral renewable biomass energy to run our plants</t>
+          <t>We will invest in medical research and clean energy technology</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,87 +828,87 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>So you do acknowledge that using a lot of fuel does in fact create jobs</t>
+          <t>It is the utilities driving renewable growth and many other independent power producers driving renewable growth and we can take advantage of those independent power producers through very competitive RFPs and PPAs and certainly with our own facilities</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>There is a great controversy right now Congressman over the Environmental Protection Agencys proposed rules for particulate emissions from coal plants and also greenhouse gas emissions</t>
+          <t>Approximately 10 years ago Beaver County started to see the effects of the technological advancements that made developing the Marcellus Shale possible</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Utilization of the Foothills system through Canada under the Northern Pipeline Act provides regulatory structure and certainty for Alaskan gas as no new legislation or regulations are needed in Canada</t>
+          <t>These are good solid domestic jobs that get created with energy efficiency</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>That is why Canadas oil sands is nearly as valuable as an example of energy policy done right as it is for the oil itself</t>
+          <t>I guess since I am from Louisiana I am associated with the sugar industry and I want to talk about cellulosic ethanol or ethanol from sugar but I have heard about hybrids I have heard about coal cellulosic corn ethanol</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Is it fair to say that Order 1000 provides a structure for other regions of the country to likewise identify and build transmission infrastructure that is needed to bring new renewable resources online</t>
+          <t>This bill would require the Secretary of Energy to establish a program relating to the physical security and cybersecurity for pipelines and liquefied natural gas facilities</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>And with Canadas vast proven oil reserves the prospect of North American energy independence is no longer political rhetoric but a promising reality</t>
+          <t>You heard about the domestic manufacturing of wind turbine components that has also increased dramatically over the last 5 years as the renewable standards have ramped up</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>While I have said on several occasions that the Yucca Mountain project merits independent and objective oversight I am also concerned that this Subcommittees myopic focus on Yucca Mountain has diverted its attention from other pressing nuclear safety issues</t>
+          <t>At the same time Keystone will increase our Nations longterm security by accessing oil from our friendly neighbors to the north from Canada</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>It goes actually to the heart of what I have talked about which is when you look at energy independence and we look at developing as part of a national security strategy and having an energy policy when you look at those refineries and 30 percent being owned by foreign interests when you look at 30 percent of our oil or 27 being imported into the United States if you want to look at it at a freemarket perspective we dont have a free market</t>
+          <t>OK Do pollution controls affect the power plants energy efficiency</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>The article went on to note that in just the Bakken and Three Forks plays alone the US Geological Survey estimated that there are 74 billion barrels of recoverable oil and 67 trillion cubic feet of natural gas waiting to be tapped</t>
+          <t>So this war on coal must stop</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,17 +918,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mr Roberts you mentioned the United Mine Workers in Appalachia and Illinois and I want you to know that there are a lot of them in my district in Western Kentucky and we are excited about Peabody Coal Company being ready to open up a new mine and also entered with a consortium on a power plant also that will use some local coal</t>
+          <t>1013 would create more red tape and delay and would severely reduce protections for rivers and fisheries impacted by hydroelectric generation</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Diesel is the way of the future and I am hopeful that its shortterm benefits will not be overlooked by the Administration or the Congress even as we examine longer term strategies</t>
+          <t>But what I am interested in is how we find that sweet spot where we can develop North American energy resources and effectively manage our carbon emissions simultaneously</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,27 +938,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>The Clean Power Plan I think makes a lot of sense moving forward</t>
+          <t>Could we talk for just a minute about the energy policy that is being followed by this administration</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>I want to ask you Mr Chairman and each of the Commissioners can you for the record as short of a guarantee state that the NRC is doing its absolute best to eliminate any and all known threats to nuclear safety in this Nation</t>
+          <t>Is it fair to say that Order 1000 provides a structure for other regions of the country to likewise identify and build transmission infrastructure that is needed to bring new renewable resources online</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Although more than half the increase in natural gas consumption between 2000 to 2020 is expected in the East the Westincluding Canadian imports and most of the Gulf Offshoreis expected to provide approximately 80 percent of the incremental lower 48 natural gas supply in the reference case</t>
+          <t>The article went on to note that in just the Bakken and Three Forks plays alone the US Geological Survey estimated that there are 74 billion barrels of recoverable oil and 67 trillion cubic feet of natural gas waiting to be tapped</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Congressman to me the answer to your questions depends on what your view of future fossil fuel prices are</t>
+          <t>While that is a viable use for injected carbon we also need to store large quantities of it underground indefinitely and on that front further research development and demonstration is clearly called for</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,17 +978,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>You say coal is not competitive</t>
+          <t>We do need to streamline the regulatory process for liquefied LNG exports</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>But the good news here is that the shortterm energy markets appeared to adjust rather quickly to the collapse of the largest energy trading company in the world</t>
+          <t>The President proposed a clean energy standard to increase the amount of energy we get from renewable sources of energy as well as from nuclear and advanced natural gas plants similar to what Mr Barton proposed from the last Congress</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,17 +998,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>We recently canceled a clean coal boiler project that is a good example of this potential outcome</t>
+          <t>fuel receipt and the transportation systems to be compatible with the currently NRC licensed storagetransportation systems then they could classify the fuel in those systems as nonstandard causing that fuel to lose its place in the DOEs fuel acceptance queue</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>If we ask any energy trader they will tell you that is the first thing that they look at</t>
+          <t>Also because Kansas allows local utilities to flow through the cost of gas to consumers the ratepayers experienced dramatic increases in the cost of natural gas during the winter seasons</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,17 +1018,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>And we also operate the Nations most active LNG important terminal at Cove Point Maryland</t>
+          <t>On the other hand keeping the focus on energy efficiency is not easy when energy prices are low</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>As I say in the blueprint here using energy more efficiently is akin to developing more fuel</t>
+          <t>If we develop our energy resources while vigorously protecting the health and safety of all Americans our Nation can realize enormous economic and energy security benefits</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Finally we must determine the most environmentally sound methods of increasing energy supplies for our country</t>
+          <t>EPAs greenhouse gas rule will impose a de facto ban on construction of new coal</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>About 20 some percent and yet their carbon footprint is how much more for that production</t>
+          <t>Yes we share a commitment with Canada to work towards energy security</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>He has added substantially to the states ability to deal with our current energy situation</t>
+          <t>Shell was one of the first integrated oil companies to acknowledge the impacts of human activity on the climate and we believe now is the time to act</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,37 +1068,37 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Secretary Hogan in 2007 Congress passed the Energy Independence and Security Act</t>
+          <t>And we also operate the Nations most active LNG important terminal at Cove Point Maryland</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Michael McNulty Attachment B clean power group multiemission control strategy materials Clean Power Groups MultiPollutant Emission Control Strategy The power generation sector is a major contributor to US air pollution</t>
+          <t>But if only 2 percent of the natural gas escapes through to the atmosphere then we are going to be in worse shape than if we used coal</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>And that is the kind of dual standard that the Republicans want us to accept even as oil has dropped from 57 percent imported to 45 percent imported since Bush walked out the door in January</t>
+          <t>It would affect ethanol prices to some extent</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>One way that I believe the commission can help to ensure reliability is through open communication and a strong working relationship with the EPA the Department of Energy the States and NARUC the North American Electric Reliability Corporation or NERC regional transmission organizations independent system operators and industry</t>
+          <t>Were you involved in any communications with the White House to push the Department of Energy to speed this thing along</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Then the President issued two executive orders intended to increase energy production</t>
+          <t>Do you think that all drinking water systems that are located near wastewater treatment facilities that accept drilling waste should monitor intake water for radioactivity and other potentially hazardous byproducts of these activities</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,97 +1118,97 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>From a consumers point of view the Nation will be better off if we have a wide range of generation options and let the market work out the most cost effective solution to supplying our energy needs over time</t>
+          <t>Along these same lines the Nuclear Waste Policy Act of 1982 could be amended to provide the Commission with the sole authority to establish standards for highlevel radioactive waste disposal</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The Nuclear Waste Policy Act of 1982 made the transportation and longterm storage of nuclear waste the responsibility of the Secretary of Energy</t>
+          <t>Congressman if you dont mind I think I will jump into this first and I would ask maybe to submit for the record the most recent comprehensive study conducted by the Department of Energys Argonne National Lab which looked at all of the energy balance studies that have been done over the past 10 and 15 years and concluded that without question ethanol has a positive energy balance</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>They have to be and I am wonderingyoure over at the meeting with the gas folks12000 peopleare there any topics that are being discussed specifically as to energy efficiency</t>
+          <t>Sir I think the difficulty with hydrogen is around the infrastructure and that would depend on the investments that were necessary to transport it and store it and all of that I think happens over a much longer period of time</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Because they will now have the controlling interest in that oil field so they can do what</t>
+          <t>So for instance one of my companies Sun Drop Fuels has adopted a different model so they went to Chesapeake a natural gas company because they are going to use natural gas as part of the feedstock in their plant</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>I know their program is what they are trying to develop there is also been using solar panels so they can go to areas without electricity and still be able to process water for families in that immediate area</t>
+          <t>To promote economic growth and strengthen security President Obama has called for an alloftheabove strategy that develops every source of American energy</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>We dont just rely on Idaho National Lab although Idaho National Lab is a flagship lab for nuclear energy we are relying on Oak Ridge we are relying on many of the others and Lawrence Livermore and other labs</t>
+          <t>But it is now 2015 and global and domestic oil markets have changed significantly we would all recognize that and SPRO needs to be modernized</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Well that was under the greenhouse gas requirement but did anyone at EPA consult with the Office of Management and Budget or the White House before moving forward with taking over the flexible permitting program under the Clean Air Act</t>
+          <t>Creation of a governmentindustry partnership to pursue two short term objectives resolving technical andor economic issues associated with the new nuclear plant designs and validating the new licensing processverifying that it works as intended and will not place private sector investment at risk</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Instead as the threat from climate change becomes more and more dire and the scientific consensus of the threat becomes even clearer we are having another hearing focused on the alleged war on coal</t>
+          <t>Now its been reported that EPA has had Toyota run emissions tests on clean burn diesel vehicles for the European market</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>In the energy study that was conducted last summer after the price spikes like we saw in California they found that a 25 percent reduction in their usage at peak times would have saved Californians 700 million last summer</t>
+          <t>We encourage Congress to learn from States like New Mexico when implementing programs to reduce greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Can you elaborate why this makes such a difference for your members in providing greater certainty to prospective purchasers for redevelopment of petroleum contaminated brownfield sites that are cleaned up under a State program</t>
+          <t>Have you analyzed how expected and observed climate changes will affect natural gas price fluctuations</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,37 +1218,37 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Our nations comprehensive energy policy must ensure an affordable reliable supply of energy and nuclear energy provides one of the solutions to several policy challenges that our nation faces</t>
+          <t>The energy markets of Canada Mexico and the US are becoming increasingly interdependent thanks in large part to the free trade status of energy commodities</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>And in fact even as we speak here this afternoon officials in Louisiana are still waitingstill waiting for the Federal Government to provide millions of feet in boom to approve an emergency permit to fullynot partiallyimplement their plan to dredge and build a new barrier island to prevent even more oil from reaching their marshes and wetlands</t>
+          <t>Page 11 of your testimony you recommend that Congress require the Clean Air Scientific Advisory Committee CASAC to comply with the Clean Air Act Section 109d and advise the Administrator of any adverse public health welfare social economic or energy effects which may result from various strategies for attainment and maintenance of air quality standards</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>In early June 2008 the MDH received data from concerned citizens that included measurements of elevated levels of hydrogen sulfide in the ambient air in their community</t>
+          <t>As potential vulnerabilities emerge in the Nations utility distribution infrastructure ensuring reliable sources of energy for our installations has become increasingly challenging</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>So now that youre on the job I wanted to ask you specifically do you believe that greenhouse gas emissions endanger the public health</t>
+          <t>We believe that the first of these recommendations P0001 related to the use of E911 when damage to a pipeline results in the release of gas or other hazardous substance has been resolved with a change to the best practices and recommendations to OPS earlier this year</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>The other waiver authority which you referenced is a general waiver authority where if the administrator can either be petitioned by a party or can on her own determine that the RFS implementation would create a severe economic harm to a region or a State and that the previous conversation we have been petitioned a couple of times and determined that again because of market dynamics and the demand that the refining industry has for ethanol that the statutory test simply was not met and we are not allowed to grant that waiver</t>
+          <t>And if I can share more expertise that we have in Texas and the south related to wildfire hazardous fuel reduction and prescribed burning</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,17 +1268,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>In that case the question that I will find most important is Will moving to a highoctane fuel standard do a better job in incentivizing and creating market signals for advanced biofuels</t>
+          <t>But it still leaves the rest of the number which is the 60 or 70 percent which has come from or will have to come from hydrocarbons using advanced technologies</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Anticipating efforts in the first half of 2006 particularly in the first quarter and moderating energy prices will create a seesaw effect for the US economy and manufacturing</t>
+          <t>As you are aware ConocoPhillips supports passage of a comprehensive Federal law establishing a clear and transparent price for carbon</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Moreover if abnormally warm weather prevails this summer the current market may become highly sensitive to demand particularly in the Western and South Central United States where natural gas is heavily used for power generation</t>
+          <t>Could you describe the goals of your partnership and also what you hope to learn through these field tests and can you give us a sense of when you think carbon sequestration technology could be sufficiently reliable for deployment and for something we can actually begin to rely upon as we structure legislation that in fact might require the capture and sequestration of carbon</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,17 +1298,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>And on the battery side it is really beautiful because we are very fuel agnostic</t>
+          <t>We are still overly dependent on foreign oil from countries that clearly we have seen especially over the last 15 years do not represent our interests and values</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>And on top of that we reached an agreement last year with the operator of the three largest coalfired electric generating units in New Jersey that are going to bring major major reductions in emissions from those units</t>
+          <t>The other thing we can do is to make sure that any difficulties associated with splashblended ethanol are addressed by allowing us to incorporate ethanol into other ethers for example ETBE</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,37 +1318,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>But our bipartisan group has reached out and said you solveyou give us a waiver on ethanol</t>
+          <t>In Brazil where a high percentage of ethanol fuels are sold consumers do indeed consider energy content pricing rather than simply buying the cheapest fuel</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The programs were talking about today like the section 1603 tax grant the Department of Energy weatherization program and the DOE loan program have improved the lives of citizens around this country creating jobs heating homes and providing resources to this Nations energy innovators</t>
+          <t>coal consumption Coal consumption is dominated by electric utilities which consume nearly 90 of all coal production</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Of course we are always concerned about keeping gasoline as affordable as possible and some critics of oil exports have raised fears of price spikes</t>
+          <t>But before March 1979 was the last instance where the NRC received an application for a new nuclear power generation plant</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>They have been in use for years in places such as Texas in order to achieve enhanced oil recovery</t>
+          <t>Likewise in Puerto Rico Hurricanes Irma and Maria uncovered the intensified issues associated with aging and inefficient energy infrastructure contaminated sites that are rapidly multiplying landfills that are already overflowing and possibly the most contaminated drinking water supply in the United States</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,37 +1358,37 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>And this is a key moment for the committee to play a role in addressing climate change and this bill does make several key investments for our energy future although I am willing to entertain more possibilities</t>
+          <t>Canada is already the largest supplier of energy to the United States meeting 12 percent of current US petroleum consumption needs and 18 percent of US petroleum imports</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Energy is the issue and it is one we need to deal with thoughtfully carefully deliberately through the legislative process</t>
+          <t>And of course it is troubling as a consumer but also I mean I guess because of theof 10 percent ethanol I spend a lot of time at my lawn mower repair shop Lowerys Motors in Lewisville Texas and he said that the ethanol in gasoline had been very good for the lawn mower repair business or the small engine repair business because he gets a lot of business</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Since the drafts release the Environmental Protection Agency has issued a finding that greenhouse gas emissions pose a threat to public health and welfare</t>
+          <t>And on top of that we reached an agreement last year with the operator of the three largest coalfired electric generating units in New Jersey that are going to bring major major reductions in emissions from those units</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>In conclusion I would say new nuclear power construction is prohibitively expensive renewable power is variable and not yet scalable and coalfired power plants are under constant attack from the EPA</t>
+          <t>We have a distinguished panel that will cover all aspects of the issue from coal production to power generation from labor issues to environmental impacts from clean coal technology to consumer impacts</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,57 +1398,57 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Again I have those plants I have coal plants but I also have refineries and chemical plants that have another issue</t>
+          <t>In eastern Washington hydro plays a foundational role whether it is conventional small conduit hydro</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>I think the increased production has been very good for our economy but my concern is that the technology that we need to keep production cleanby clean I mean carbon greenhouse gas emissions from production greenhouse gas emissions in transportationthat they are not there to keep up with the demand that would increase if we lifted the export ban</t>
+          <t>We employ really goodpaying jobs and it is not quite clear to us whether we are qualified under that but certainly we would think we should be because as a result right now there is about 6500000 barrels of oil of refining capacity that is being built outside of our borders much of which is being targeted to come into this country so if we dont have some similar protections and some guidelines we are concerned about leakage and ultimately increasing imports at the expense of our domestic production</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>There is a great deal of uncertainty about the size and availability of crude oil resources particularly conventional resources the adequacy of investment capital and geopolitical trends</t>
+          <t>LIPA is recognized as a leader in conservation and efficiency measurespromoting conservation installing of new energy efficient lighting and appliances and using energy efficient technologies and renewables such as geothermal heat pumps and photovoltaicswith the implementation of a fiveyear 170 million Clean Energy Initiative</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>So yes I mean I would agree as my testimony alluded to that projects like that in California and other States around the country are being driven in large part by State renewable electricity standards which have been beneficial in not only deploying the technologies but driving down the cost</t>
+          <t>This KXL scheme is equivalent to a 4 billionayear tax on the oil we are already getting from Canada with all the money going from American wallets and pocketbooks to oil companies</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The only real downside to nuclear energy is figuring out what to do with the waste</t>
+          <t>These plants have proven to be highly reliable in all weather conditions costeffective in operation and act as crucial anchors to the national electric grid</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>But I worry that you will labor mightily and give forth with a capandtrade that will produce a carbon price that is too low to affect physical change</t>
+          <t>In this case industry recommended that to improve the NSR program we should allow owners of a facility to avoid the requirements of the NSR program if they improve facility energy efficiency or if they invest in a project for pollution prevention or pollution control simply on those bases</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,27 +1458,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>At the same time Keystone will increase our Nations longterm security by accessing oil from our friendly neighbors to the north from Canada</t>
+          <t>The fossil fuel industry and House Republicans have a credibility problem when it comes to claims about the economic impacts of the Clean Air Act</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>The way this technology or what enables this is that we took the genes that encode enzymes that would transform the sugar into the fuels</t>
+          <t>Again I have those plants I have coal plants but I also have refineries and chemical plants that have another issue</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>We have the chance to turn a major liability into a valuable commodity through which the department can generate new revenue to help expand their mission as we move towards energy independence and combating global warming</t>
+          <t>Senator Dorgan you testified that after reviewing several recent studies on the impacts of LNG exports the Bipartisan Policy Center and Energy Board concluded that domestic gas prices are more likely to drive export levels than exports are likely to determine domestic prices</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,17 +1488,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>But what I am interested in is how we find that sweet spot where we can develop North American energy resources and effectively manage our carbon emissions simultaneously</t>
+          <t>The commission has a stake in the national energy policy and has identified areas where new legislation would be helpful</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>In global warming that means putting a moratorium on building huge new sources of COINF2INF emissions</t>
+          <t>With respect to key goals FreedomCAR is focused on petroleumfree emissionsfree transportation with an emphasis on hydrogen fuel cells and also on systems and components applicable to many types of vehicles</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,27 +1508,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>We have one of the greatest resources in the world and right down the road here 30 minutes from here Eastman Chemical Corporation uses 60 carloads of coal every day that you all produce and a railroad takes to them</t>
+          <t>We are currently bound to a petroleum infrastructure and before drivers will purchase a fuel cell vehicle they have to have confidence in a hydrogen refueling infrastructure</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>As members of this committee are well aware FERC has been without a quorum since February which has prevented action on crucial energy infrastructure projects</t>
+          <t>The C2P2 encourages generators and users of coal combustion products to increase the use of coal ash in cement and other construction products</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>In this case those factors are the consequences of a strike in Venezuela that crippled that countrys export capability for months weather much colder than normal in parts of the country where energy use is extremely sensitive to temperature and uncertainty over crude oil supply in the immediate future due to the international situation involving Iraq</t>
+          <t>It is with growing incredulity that the rest of the industrialized world views the effectiveness of energy industry disinformation campaigns with the American public</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,17 +1538,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>It is our ability to capture opportunities in lowcarbon technology reduce dependence on imported foreign oil and catalyze improvements in productivity more broadly</t>
+          <t>Then the President issued two executive orders intended to increase energy production</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>I mean the National Association of Manufacturers claims our country would lose 3 to 4 million jobs as a result of a cap and trade energy tax so I just wanted to know if you or any other members of the panel want to answer that question</t>
+          <t>And we under this plan would not have the flexibility to build a new coal plant if natural gas prices go up because the technology is not available to be able to do it in an economic way that would make it possible to do it</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,47 +1558,47 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Our work on energy issues has described some of the consequences of hurricanes on petroleum marketssuch as rapid gasoline price increases</t>
+          <t>In addition TIGR has also sequenced a wide range of important environmental microbessome of which live in extreme environments but may be critically important to the health of the planetand that carry out a variety of interesting metabolic reactions including degradation of cellulose and other organic matter precipitation of heavy metals such as uranium from solution and production of methane and hydrogen as potential new sources of fuel</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>By definition costeffective conservation is less costly than any other energy resource and conservation reduces consumers bills</t>
+          <t>Texas Pacific and Kohlberg Kravis Roberts the famous KKR purchased Texas Utility Corporation and agreed to terminate 8 of 11 proposed coalfired power plants</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>It is with growing incredulity that the rest of the industrialized world views the effectiveness of energy industry disinformation campaigns with the American public</t>
+          <t>Congress should further accelerate the effective date of energyefficiency tax incentives in the Energy Policy Act and fund energy awareness programs at the Department of Energy</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>And the clean energy sector employed roughly three times more workers than the fossil fuel sector in 2019</t>
+          <t>It wasnt that long ago that we thought we were out of natural gas as well</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Mr Caruso your testimony focuses on the supply side of natural gas</t>
+          <t>In this case those factors are the consequences of a strike in Venezuela that crippled that countrys export capability for months weather much colder than normal in parts of the country where energy use is extremely sensitive to temperature and uncertainty over crude oil supply in the immediate future due to the international situation involving Iraq</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,37 +1608,37 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>As a consequence of the RFS we are now just 45 percent dependent on foreign oil for our liquid transportation fuels</t>
+          <t>And with Canadas vast proven oil reserves the prospect of North American energy independence is no longer political rhetoric but a promising reality</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>In eastern Washington hydro plays a foundational role whether it is conventional small conduit hydro</t>
+          <t>When they heard about President Obamas proposal to put a tax of 10 on a barrel of American crude oil they all said what the heck what is he thinking</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Instead what weve learned from a steady stream of press reports and congressional hearings is that bullet EPA in fact concluded that greenhouse gas emissions endanger public welfare and submitted its finding to OMB in December of last year</t>
+          <t>OK Now those greenhouse gas emissions are not only CO2</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Americas hydrocarbon renaissance has given us the gift of time</t>
+          <t>Members of my local union located in Michigan spent months working on the TransAlaska pipeline which covers 800 miles and carries oil from the North Slope of Alaska to Valdez Alaska</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Well in a side note a number of us went to Mexico for an interparliamentary the Friday before Thanksgiving and one of the things that was the highlight of our discussion with the Members of Congreso was the recent decision on the pipeline from Texas natural gas pipeline to northern Mexico because they dontobviously have a lot of resources but not enough production</t>
+          <t>In that same hearing Ms Angielski we heard testimony that fossil energy will remain a major part of the energy mix in growing nations like India Vietnam Colombia South Africa because the sources are domestic abundant and affordable</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,17 +1658,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Other FreedomCAR challenges include technical market infrastructure and public policy hurdles before fuel cell vehicles are commercially available and DOEs vision of a petroleum free emission free transportation system is a reality</t>
+          <t>The 2 percent allocation for refiners is intended to keep them competitive and encourage energy efficiency improvement</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Therefore the agenda is one of purely decarbonization and climate change not really of energy security not really of air pollution because if it were about air pollution or just clean energy you would have uniform support for things like diverse nuclear power natural gas and so forth</t>
+          <t>If we really do something about climate change by reducing COINF2INF emissions and reduced demand for oil can that help us restrain the price increases of oil</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>My home State of New Jersey has a draft energy master plan that calls for the electrifying the building sector by 2050 and reducing the reliance on natural gas for heating homes and buildings</t>
+          <t>Soand the other thing I would add is that they are not clean or completely fossilfuel free the way that renewables are</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,27 +1688,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>In addition ethanol cannot be carried in the nations pipeline system and must be segregated from the wholesale distribution system until its addition at the truck rack</t>
+          <t>And many of the coops in my district have supported an alloftheabove energy policy</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Also consistent with NPC recommendations the program promotes maximum collaboration between the federal government industry and academia and it establishes a program that is an order of magnitude larger than the Department of Energys existing gas supply RD program</t>
+          <t>Considering the nations maximized operational capacity increased reliance on imported oil and strained refining infrastructure any complicating factors in the gasoline distribution chain refining outages or multiple smallmarket fuel formulations can easily impact overall supply and consumer costs</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Does anybody believe that the coal industry should have the right to put unlimited amounts of carbon dioxide at zero cost into the atmosphere</t>
+          <t>Therefore the agenda is one of purely decarbonization and climate change not really of energy security not really of air pollution because if it were about air pollution or just clean energy you would have uniform support for things like diverse nuclear power natural gas and so forth</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Lawmakers must examine the welltowheels cost and impact of EVs from power plant energy distribution to battery disposal</t>
+          <t>A big driver for renewable energy development has been the willingness of States to forge ahead despite the absence of federal leadership</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,27 +1728,27 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>To date the energy sector has done a good job of guarding consumers against losses caused by a cyber or physical attack</t>
+          <t>Instead we develop runoftheriver hydro a smallscale hydro wind and wood waste power and they produced three times as many jobs</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Second my second point the rising US gasoline prices has come at a time of soaring US gasoline production</t>
+          <t>For example should we use natural gas directly for transport or convert it to hydrogen first</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Emissions markets are established early and can provide accurate price signals to all involved</t>
+          <t>Ultimately Congressman if the Department of Homeland Security felt that the Nuclear Regulatory Commission hadnt moved either quickly enough or effectively enough visavis the threat you are talking about one would hope that the new Cabinet Secretary in conjunction with the chairman of the Nuclear Regulatory Commission can resolve that</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>This has to do with lowenriched uranium fuel</t>
+          <t>Stockpiling should be carefully investigated by EPA and the exact amount of gas should be deducted from the critical use exemption totals each year</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>And the Federal Energy Regulatory Commission oversees many elements of the energy markets that this committee is familiar with including natural gas pipelines and electricity markets while the CFTC oversees natural gas and electricity futures</t>
+          <t>It is more important than renewable technology development more important than any efficiency improvements and more important than advances in nuclear energy development</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,27 +1778,27 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>In addition we recently received an early site permit from the Nuclear Regulatory Commission which certifies that our site in Clinton Illinois where we operate one nuclear reactor meets all necessary criteria for construction of a new nuclear unit</t>
+          <t>Our agreement builds on XTOs nearly quarter century of success in developing affordable reliable cleanerburning US unconventional natural gas supplies for use by Americans</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>In 2000 these nuclear power plants produced a record 755 thousand gigawatthours of electricity</t>
+          <t>Emissions markets are established early and can provide accurate price signals to all involved</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>The goals are to reduce foreign oil imports and improve air qualitynot subsidize American industry</t>
+          <t>I mean the National Association of Manufacturers claims our country would lose 3 to 4 million jobs as a result of a cap and trade energy tax so I just wanted to know if you or any other members of the panel want to answer that question</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>We cannot simply solve this crisis without focusing increasing our energy efficiency</t>
+          <t>FERCs authority to review proposed mergers should be expanded to include mergers of holding companies transfers of generation facilities and consolidation of electric and natural gas companies</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,17 +1818,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Exporting oil just doesnt make any sense</t>
+          <t>We believe to create a truly competitive vibrant energy industry these constraints should be removed</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>As you will hear today however we believe that elements of the alternative fuels discussion draft as currently constructed will not fully achieve those objectives and may ultimately be counterproductive</t>
+          <t>My own research has focused on understanding and quantifying the effects of reductions in mercury emissions</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>However it is doubtful that hydrogen demand will increase so rapidly as to adversely affect the supply of natural gas</t>
+          <t>So I am a bit confused because Ms McCabe testified that the EPA found that fuel efficiency technology development was moving faster than they had expected and is being implemented in the early years of the program</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Excavation damage is the leading cause of natural gas distribution pipeline incidents</t>
+          <t>Under the Clear Skies Initiative all Americans will benefit from cleaner air as emissions of the major pollutants from power generation SOINF2INF NOINFXINF and mercury are reduced by roughly 70 percent</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,27 +1858,27 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>I think it is possible on a bipartisan basis to do things that actually further the science further the research into carbon capture and conversion accelerate the use of existing technologies like nuclear power some of the alternative energy sources that we know are zero emissions wind power new hydropower things like that</t>
+          <t>Estimated potential energy savings expected to result when this program is fully implemented are in the 35 range</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mr Barrett under the Nuclear Waste Policy Act we gave Nevada the tools which really means the money they need to oppose the Yucca licensing process at the NRC</t>
+          <t>The problem is that if we look ahead and we look at the fact that natural gas is still a fossil fuel comes with CO2 emissions a coaltogas switch will just not be enough to meet our climate goals</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>We support requiring all lightduty vehicles starting in 2023 to be designed specifically to run on this fuel on at least a 95 octane rating and potentially higher</t>
+          <t>All of the research that we have done points toward the need for a full portfolio generation options which includes the need for all forms of thermal generation including nuclear and coal</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The Presidents proposal removes this requirement allowing plants with no pollution controls at all to keep on polluting</t>
+          <t>Excavation damage is the leading cause of natural gas distribution pipeline incidents</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,87 +1898,87 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>So the real question is what is the cost of the fuel</t>
+          <t>First engage the consumer in reducing their own energy use and carbon footprint through the Energy Star Program</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Second I do think that green coal and carbon sequestration is the most important single breakthrough we could make because the objective fact is China is adding one coalburning plant a week</t>
+          <t>Do you as Commissioner Norris stated the question is not whether we reduce carbon pollution but how and EPA has an answer embodied in the Clean Power Plan and that is what they are proposing as a start</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>OK Do pollution controls affect the power plants energy efficiency</t>
+          <t>Just last month the company was even touted by President Obama for having innovators and creating jobs that will foster our economic recovery and create clean technology to power our longterm prosperity</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>To promote economic growth and strengthen security President Obama has called for an alloftheabove strategy that develops every source of American energy</t>
+          <t>Municipal utilities in my Tennessee district saw the cost of natural gas soar to near 10 per million Btus on the spot market over the winter</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>According to the Congressional Research Service nuclear research and development has gotten more than 60 or 66 billion in energy research and development funding from 19481998</t>
+          <t>Mr Barrett under the Nuclear Waste Policy Act we gave Nevada the tools which really means the money they need to oppose the Yucca licensing process at the NRC</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>At the end of May working gas in storage stood about 38 percent below endofMay 2002 levels and 28 percent below the previous 5year average</t>
+          <t>The environment doesnt benefit and you have these constricted flows and it seems to me it does not benefit anybody other than the industry that is out there designed to shut down any progress on energy development</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>It is affecting a lot of other industries that depend on natural gas as either a raw material or as a fuel</t>
+          <t>So the real question is what is the cost of the fuel</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Last year US production increased over a million barrels a day and if we were to repeal the ban on crude oil exportsnow this is an opinion</t>
+          <t>Are these coal refusetoenergy facilities typically located in a smaller community or a larger community</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>The problem is that if we look ahead and we look at the fact that natural gas is still a fossil fuel comes with CO2 emissions a coaltogas switch will just not be enough to meet our climate goals</t>
+          <t>In terms of the policies of Alberta there are policies in place to recognize that the upfront costs of developing oil sands are very very high</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,17 +1988,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>You would be a real hero if you could get us the energy bill</t>
+          <t>But you continue to hide evaporative emissions by even using tailpipe emissions in my opinion</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>It is somewhat more complex and if you are familiar with how DOE is organized Mr Stupak the vast majority of work at the Department of Energy including our nuclear weapons work our research laboratories Mr Stupak</t>
+          <t>He said in his oil statement and again just now that somehow companyan individual company would have to go out and assess the exposure not only to their use of the chemical but to everybody else on the market</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,17 +2008,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>We know that but you seem to be saying that so many on the other side that it is all due to man or burning coal fossil fuels and that just simply doesthat is why there is an ongoing debate on it and you are coming from your position</t>
+          <t>In summary we believe tomorrows automobiles must be flexible enough to accommodate many different energy sources</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Yes we share a commitment with Canada to work towards energy security</t>
+          <t>Intense foreign competition from Stateowned enterprises poses another challenge for US companies particularly in the civil nuclear sector</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,17 +2028,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>We have seen cases in Pavilion Wyoming and in Dimock Pennsylvania where the EPA has also accused oil and gas operators of groundwater contamination from fracking without sufficient evidence to justify those accusations</t>
+          <t>This is what he said Simply put the Clean Air Act oxygen mandate slows environmental improvement raises costs and is no longer required to ensure substantial and sustained ethanol use in California</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Our investments are designed to deliver and promote reliable marketavailable policies practices and life cycle cost effective technologies that will permanently reduce a trajectory of US energy demand growth and carbon footprint of the built environment while maintaining strong economic growth</t>
+          <t>Michael C Burgess Congress established the Corporate Average Fuel Economy program in 1975 to improve vehicle fuel economy reduce oil consumption and secure the Nations energy independence</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,17 +2048,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hydro provides six to seven percent of all electricity generation and nearly half of all renewable generation making hydro the largest provider of renewable electricity</t>
+          <t>One of the technologies we are currently applying alongside of the SAGD is cogeneration a very energyefficient process that produces both steam for our operations and electricity for the sale to the grid</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>We greatly appreciate the bipartisan support for coal in the Committee as reflected in both the Housepassed version of HR</t>
+          <t>And there are a lot of factors for this but one of the big reasons is this massive drive towards ethanol</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,17 +2068,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>I guess what I would conclude you said you would not put a roadblock up to exporting coal</t>
+          <t>This need not be limited to natural gas or other energy products</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>On September 21st EPA expanded this effort in order to minimize potential fuel supply disruptions caused by Hurricane Rita</t>
+          <t>And he says he bids on a job and he has to be competitive with his bid and then overnight the price of diesel goes up and sometimes it goes up from when he starts the job several times before he finishes the job and there goes his profit</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,17 +2088,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>They include the bioremediation of mixed waste at many of the contaminated DOE sites the witchs brew that we have left from the legacy of cold war also the enhanced sequestration of carbon by the terrestrial and marine biosphere in order to reduce the atmospheric concentrations of greenhouse gases in the atmosphere and also as has already been mentioned the production of clean fuels such as hydrogen through the miracles of biotechnology</t>
+          <t>I would imagine just engaging in the economywide outcome with carbon pricing Ms Palmer</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>We took a plant in Michigan called the Michigan Truck Plant which produced Expeditions and Navigators large SUVs and converted it into making small cars and now that plant makes Focus CMax hybrid CMax plugin hybrid Focus battery electric vehicle all in the same plant down the same line only place in the world where we do where that is done</t>
+          <t>I introduced a bill called the Renewable Energy Jobs Act that will provide pilot programs for training individuals for employment in renewable energy and energyefficient industries on site in these companies</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>In the next 2 weeks large oil pipeline operators will be in compliance with the required baseline testing deadline of the highest risk segments set by the regulations</t>
+          <t>I think that is an incredibly positive development and in fact the predictions of all the oil growth that Raymond James and Citigroup have made all assume that those new rules are going to be implemented yet we are going to have this explosion in oil production yet with the production of which offshore is going to be much safer for the workers and for the environment</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,47 +2118,47 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>COMMINGLING OF DIVERGENT COMPLIANT FUELS First Congress should adopt a legislative provision to permit the commingling of divergent compliant fuels</t>
+          <t>I think all of us are committed to trying to find out what did take place and put the steps in place that are necessary to make this a safersafer and sounder future for us in terms of oil and gas exploration</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>As I said previously while our attention to electricity issues has been sporadic since the passage of the Energy Policy Act of 2005 there was a time when it seemed like this committee held hearings on the electric sector almost weekly</t>
+          <t>But on the other hand those that want to have exploration we think that the country and the committee should stand behind those States if the prospects are indeed there</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Administrator Jackson and Rear Admiral Watson yesterday the Coast Guard ordered all ships participating in the BP oil spill cleanup to cease operations after crew members on three boats reported health problems</t>
+          <t>In fact President Trump had proposed doing away with the Northeast gasoline supply reserve which had been created administratively by President Obama in response to the dangerous shortages that occurred in the wake of Superstorm Sandy including in my area of New Jersey</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>S 389 extends the existing credit and creates a second drilling window that also applies to heavy oil</t>
+          <t>I am here to speak a bit about the Regional Greenhouse Gas Initiative that nine and soon 10 States in the Northeast have embraced to deal with greenhouse gas emissions from the electricity generation sector in our State</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>For illustrative purposes 43 quads is equivalent tobullet Over 20 million short tons of coal or enough coal to fill a coal train of railroad cars almost 2000 miles longbullet 418 billion cubic feet of natural gasbullet Almost 35 billion gallons of gasoline or more than 10 days of US gasoline consumptionbullet Almost 10 hours of the entire worlds energy use based on consumption levels in 1996bullet Nearly half of the approximate annual primary consumption of any one of the following states Arizona Arkansas Colorado Iowa Kansas Mississippi or Oregon based on consumption levels in 1996 This 43 quads represents a 39 total annual savings in cooling and a 19 savings in heating or a total heat and cooling savings of approximately 25 billion per year by 2010 given an adoption baseline of 1996</t>
+          <t>We cannot simply solve this crisis without focusing increasing our energy efficiency</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,17 +2168,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>There has been a lot of investment and that has been a lot of indirect jobs that have gone into that in building renewable refinery capacity and it is all happened not at the expense of the petroleum industry</t>
+          <t>Rush and others in terms of how do we organize the Department of Energy for the next generation</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>This simply reflects the large amount of capital necessary to find refine and distribute petroleum products</t>
+          <t>So yes I mean I would agree as my testimony alluded to that projects like that in California and other States around the country are being driven in large part by State renewable electricity standards which have been beneficial in not only deploying the technologies but driving down the cost</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,27 +2188,27 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>There is no question that the oxygenate ability of ethanol is a positive</t>
+          <t>The savings from the CAFE proposal like I mentioned is more than three times proven reserves of oil in the United States</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>The fossil fuel industry and House Republicans have a credibility problem when it comes to claims about the economic impacts of the Clean Air Act</t>
+          <t>Environmental concerns are extremely important because energy production and consumption involve major externalitiescosts that are not easily reflected in market transactions</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Renewable fuel standard is putting 36 billion gallons of nongasoline into the gasoline and diesel supply through the next few decades</t>
+          <t>The number of oil rigs operating in the United States has quadrupled in just the past 3 years</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>I was sitting here listening thinking of a hearing we had not many weeks ago and Mr Greenspan was with us talking about the current situation with natural gas supplies and pricing in this country</t>
+          <t>Well that was under the greenhouse gas requirement but did anyone at EPA consult with the Office of Management and Budget or the White House before moving forward with taking over the flexible permitting program under the Clean Air Act</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,57 +2228,57 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>3136 correctly understand the importance of not prematurely reimposing the nuclear waste fee especially given the substantial balance and large investment interest which accrues annually</t>
+          <t>Im frustrated that the Bush administration is decimating important R D programs and not establishing realistic and attainable goals for our energy future</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>But we do have an oil crisis</t>
+          <t>What do you see as the Federal Governments proper role in encouraging the use of alternative fuels in vehicles</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>The Energy and Commerce Committee should continue to lead the effort to ensure the Federal government meets is moral and fiduciary responsibility to clean up its defense waste and ensure the permanent safe disposal of spent nuclear fuel</t>
+          <t>This simply reflects the large amount of capital necessary to find refine and distribute petroleum products</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>We may even get some pleasant surprises such as we recently experienced with the shale gas revolution</t>
+          <t>Regarding regional impacts of an RES also raised in many of the opening statements different parts of the country have access to different types of renewable energy with different cost and performance characteristics</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>As an integral part of their transmission systems interstate natural gas pipelines own and operate a majority of the natural gas storage capacity in the United States</t>
+          <t>US dependence on imported oil has fallen since the RFS was enacted from 60 percent in 2005 to 40 percent today</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Have you analyzed how expected and observed climate changes will affect natural gas price fluctuations</t>
+          <t>I think its one of the parts of this whole conversation thats a bit disturbing in that to whatever degree the price of fuel is higher because of speculation its a limiting factor on us raising our taxes that we need to raise so that we can invest in infrastructure and offer some longterm solutions for our citizens</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>I think essential to the Yucca Mountain project to store the spent fuel down there would be a rail line</t>
+          <t>My companys view and my personal perspective is that all fuel sources have something to offer and a diverse portfolio is key to a reliable electric grid</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>We have a great record in the Northwest on saving energy through conservation</t>
+          <t>Anticipating efforts in the first half of 2006 particularly in the first quarter and moderating energy prices will create a seesaw effect for the US economy and manufacturing</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2308,17 +2308,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>In addition the quadrennial energy review will provide an opportunity to look at obstacles to building gathering lines that would allow you to capture natural gas</t>
+          <t>The amount of gasoline that can be supplied to a particular region may be inflexible in the short run because of various limitations on refining and transportation capabilities or product requirements unique to that region</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ultimately Congressman if the Department of Homeland Security felt that the Nuclear Regulatory Commission hadnt moved either quickly enough or effectively enough visavis the threat you are talking about one would hope that the new Cabinet Secretary in conjunction with the chairman of the Nuclear Regulatory Commission can resolve that</t>
+          <t>To date the energy sector has done a good job of guarding consumers against losses caused by a cyber or physical attack</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,27 +2328,27 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>In our particular area if you think of wind turbines or solar panels or efficient gas turbines those rare Earth minerals are not actually a major component of our decision making in where to locate</t>
+          <t>Well just to add on that most of the nuclear plant sites in the country have had to add additional storage capacity either in the form of expanding the pools themselves or how to manage the pools or putting them in what is known as dry cask storage</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>The fact remains it was under Secretary Salazar that BPs initial exploration plan was reviewed and approved by the Minerals Management Service</t>
+          <t>In conclusion I would say new nuclear power construction is prohibitively expensive renewable power is variable and not yet scalable and coalfired power plants are under constant attack from the EPA</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A delay will also give time for utilities to avoid what appears to be an overreliance on natural gas</t>
+          <t>The Presidents proposal removes this requirement allowing plants with no pollution controls at all to keep on polluting</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,57 +2358,57 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>If you want to expand on that and also doesnt a twotier system basically already exist since all clean resources other than nuclear have outofmarket payment subsidies and everything that impact their bid price</t>
+          <t>Surrounded by 10 feet of polluted oilslick water without power or reliable communications the staff at Memorial worked for nearly five days to treat feed and evacuate patients families and local residents who sheltered in the hospital</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Towns which adds some common sense to a currently onerous relicensing process for nonfor Federal hydro projects</t>
+          <t>While the nodrive program did not produce the desired results the cleaner burning gasoline did</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>But before March 1979 was the last instance where the NRC received an application for a new nuclear power generation plant</t>
+          <t>The fact remains it was under Secretary Salazar that BPs initial exploration plan was reviewed and approved by the Minerals Management Service</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>On the other hand keeping the focus on energy efficiency is not easy when energy prices are low</t>
+          <t>I also urge that any proposal considered by this committee have the best interests of electricity consumers in mind including the promotion of conservation and renewable and innovative energy sources</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Commander Lippold are you concerned that this legislation essentially permanently lifts the ban even though we may start to see a decrease in oil production as early as the 2020s</t>
+          <t>So againit came up in the other hearing and I do feel obligated to point outthere is a limit to how much energy you can import if everyone is using their system to the maximum</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Dont you think particularly dealing with climate change and carbon because if a ton of carbon goes up in Houston Texas and a ton of carbon goes up in China it is basically the same on the worldwide impact unlike some of our other pollutants</t>
+          <t>I mean it seemed to me we ran a 2 to 3 natural gas for a long time</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>bullet Efficiency Government policies should encourage the efficient use of energy by insuring a level playing field for competing sources of energy</t>
+          <t>And on the battery side it is really beautiful because we are very fuel agnostic</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>One industry study estimates that there will be 600000 career opportunities for women and minorities in energy in the years ahead</t>
+          <t>There is a great deal of uncertainty about the size and availability of crude oil resources particularly conventional resources the adequacy of investment capital and geopolitical trends</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,17 +2438,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>We had better find a way to use coal in a clean manner</t>
+          <t>Do you agree or disagree that it is too late to prevent the carbon dioxide emissions from increasing to 450</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>So I would just ask that you go and pursue the administration policies that are killing energy production and causing higher gas prices instead of going to Saudi Arabia</t>
+          <t>The technology allows older coal plants to be retrofitted to burn cleaner eliminating the hassle of permitting a new power plant</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,37 +2458,37 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Should this final FIP result in closure of the San Juan plant and mine hundreds of jobs will be lost not only in the coal and power industry on the Nation but in the service support industry and public sector as well</t>
+          <t>Every piece of equipment that a retailer uses to dispense fuel has to be listed as compatible with that fuel and up until about 10 years ago there were no dispensers listed for above E10</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Dr Ebinger paints a very positive picture resulting from lifting the crude oil export ban reporting a gain in GDP over the next 25 years of 600 billion orbillion to 18 trillion</t>
+          <t>However the point of both the Minorities in Energy Initiative as well as my workforce bill is that it really shouldnt matter who is in the White House that the agency DOE has the affirmative responsibility to work on increasing opportunities for all</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>The depressing part of my introduction is I realize I have been at this for 3 decades as part of the House of Representatives staff during the oil embargoes and after I was with Mr Garvin in 1983 and 1984 in the Energy Department running conservation and renewable programs and have been a consumer advocate for the last 10 years</t>
+          <t>So what we say is we support a vigorous RD program both in reactor development and in recycling reprocessing spent fuel</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>First the nuclear crisis in Japan is now in its fourth week with no end in sight</t>
+          <t>It is affecting a lot of other industries that depend on natural gas as either a raw material or as a fuel</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,17 +2498,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Our agreement builds on XTOs nearly quarter century of success in developing affordable reliable cleanerburning US unconventional natural gas supplies for use by Americans</t>
+          <t>In 2006 we actually voluntarily capped our own greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>This program would establish a unique partnership between government and industry to help ensure we meet midterm gas demand through the development of technically challenged but potentially prolific provinces</t>
+          <t>In some conversations that I have had with individuals concerned about some smaller engines those in boats or motorcycles and other specialty vehicles they have had trouble running on even blends with 10 percent ethanol</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>My companys view and my personal perspective is that all fuel sources have something to offer and a diverse portfolio is key to a reliable electric grid</t>
+          <t>Either Tippy dam in Michigan or the Bull Shoals dam and hydro project in Arkansas on the White River</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>But certainly it is important right now during this time of needed supply with questionable reliability to have any and all energy</t>
+          <t>Our notforprofit independent status precludes me from choosing between fuels</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Second EPA is about to begin an emissions trading program for nitrogen oxide in the northeast and midwest which will also bring about significant reductions beginning in 2003</t>
+          <t>No matter what decision we make on Yucca Mountain we still have a nuclear waste disposal issue</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>And you indicated up front that innovation and energy was one of your was one of your goals</t>
+          <t>On the third page of this document listed are two independent spent fuel storage installations</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,17 +2558,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>The number of oil rigs operating in the United States has quadrupled in just the past 3 years</t>
+          <t>Energy demand growth over the past 20 years has been met by the steady exploitation of the large investments made during the last energy boom period in the 1970s</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A key responsibility of this Committee is to develop and ensure implementation of a Strategic Plan for disposition and consolidation of special nuclear material</t>
+          <t>Fueling Infrastructure The third challenge we have to overcome is developing business models for the deployment of a hydrogen infrastructure and piloting technologies to support it</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,27 +2578,27 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>We had great debate over whether this administration the Obama administration is hostile to energy production on land offshore and on Federal lands etc and the argument that that is the case is not supported by the facts</t>
+          <t>Independent producers develop 90 percent of domestic wells and produce 85 percent of domestic natural gas</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>We doare very interested as I said in my remarks want to see the full investigation because we want to understand was there something else people were looking at that caused them to make the decisions they made as opposed to making the decisions that almost any of our drilling operations people would have made differently that led to the ultimate loss of the well</t>
+          <t>For example the Chairman of the Crow Nation the tribal Nation in Montana has testified before congress that the importance of coal mining to the economy of the Crow Reservation cannot be overstated</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>In fact President Trump had proposed doing away with the Northeast gasoline supply reserve which had been created administratively by President Obama in response to the dangerous shortages that occurred in the wake of Superstorm Sandy including in my area of New Jersey</t>
+          <t>The gasoline sulfur standard is a national annual average standard set at 30 parts per million a 90 percent reduction over current national levels</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,67 +2608,67 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Timely advance in clean coal technology will require significant cost share funding for research and development projects and demonstrations of emerging technology and tax incentives to reduce the risks and encourage early development and refinement of the new technologies</t>
+          <t>We have learned that MTBE if leaked or spilled can contaminate water supplies more readily than other components of gasoline</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>They are going to have to figure out what problems that will cause with the disconnect with our present Georgia gasoline</t>
+          <t>Remove Market Barriers The first problem we need to solve is a procedural barrier that keeps solar energy from accessing the electricity market</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>I am here to speak a bit about the Regional Greenhouse Gas Initiative that nine and soon 10 States in the Northeast have embraced to deal with greenhouse gas emissions from the electricity generation sector in our State</t>
+          <t>And this is a key moment for the committee to play a role in addressing climate change and this bill does make several key investments for our energy future although I am willing to entertain more possibilities</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Adoption of existing test procedures developed through the Energy Star program where energy conservation standards are proposed to be set based on Energy Star performance requirements is appropriate</t>
+          <t>As you all know the first export of LNG to scheduled to happen later this month maybe early March at Sabine Pass in Louisiana right next to Texas my own State</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Now its been reported that EPA has had Toyota run emissions tests on clean burn diesel vehicles for the European market</t>
+          <t>We found in this testing that the bag house at Gaston is not big enough to accommodate the amount of activated carbon needed to consistently achieve 90 mercury control for even just one week of testing</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Every time DOE issues a new rule it issues a press release estimating the rules benefit in cost savings for consumers and energy savings for the Nation based on theoretical models</t>
+          <t>We dont just rely on Idaho National Lab although Idaho National Lab is a flagship lab for nuclear energy we are relying on Oak Ridge we are relying on many of the others and Lawrence Livermore and other labs</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>National and state energy policy can provide for the introduction and demonstration of these other sources so with time they become an integral part of the market</t>
+          <t>That fuel switching transferred many jobs out of Appalachia to the western part of the United States</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>There is not existing biology there would be no reason to have organisms involved to do this and pump lots of hydrocarbons</t>
+          <t>It is time for Congress to provide an updated National Energy policy</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,27 +2688,27 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Our aim is to strengthen energy markets and encourage innovation throughout the electricity sector giving consumers more choice and greater control over their energy decisions while also benefiting the environment</t>
+          <t>They are the ones who bear the brunt of higher energy prices and supply disruptions</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>But as we look at the list of states with a high percentage of carbonbased fuels we look at Massachusetts at 90 better than 90 percent Michigan 86 percent Texas at 95 percent even Wyoming at 97 percent</t>
+          <t>And Mr Shimkus is from a State that has the most spent nuclear waste in the country</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>I believe that we should ask ourselves how Federal investment into clean energy can improve the lives of our constituents and our communities</t>
+          <t>The Presidents own energy secretary the Presidents own energy secretary says Somehow we have to figure out how to boost the price of gasoline to the levels in Europe</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2718,17 +2718,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>We know from past statistics that the solar industry is in the top 10 growing industries in our country</t>
+          <t>National and state energy policy can provide for the introduction and demonstration of these other sources so with time they become an integral part of the market</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>US carbon trading is coming</t>
+          <t>We need to stop fighting over a diminished pot of money and recognize that our national welfare demands that we enlarge the pot so that no deserving energy technology is starved out of federal RD funding</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>So if that were correct and I dont disagree with you on that coming from a coal State but if that is correct then why are we having policy that is moving us in that direction</t>
+          <t>I have introduced legislation with my friend Mr Doyle to make common sense reforms at the NRC to provide existing plants some relief but without a strong domestic industry how do we expect American technology and more importantly safety culture and nonproliferation standards to compete with staterun power companies like Russia and China</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,87 +2748,87 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>We know that Chinas use of coal and the world has grown from 20 percent to about 30 percent now and it is expected to get to use 40 percent of the worlds coal in the next 15 years or so we know that Chinas emissions have grown by 80 percent since 1990 and they are expected to grow another 65 percent by the year 2020</t>
+          <t>The concern I have I have expressed it many times on the high cost of natural gas and not only for heating our homes or cooling our homes if you are in my area of the country but also for the feed stock for our petrochemical industry</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>We just spent 5281 million to retrofit one coal plant to put scrubbers on</t>
+          <t>But as we look at the list of states with a high percentage of carbonbased fuels we look at Massachusetts at 90 better than 90 percent Michigan 86 percent Texas at 95 percent even Wyoming at 97 percent</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Offering alternatives that must be included by the Secretary is an unnecessary infringement on the agencys authority and expertise but granting this preferential treatment to hydropower interests is patently unjust unfair and inconsistent with every other element of the Federal Power Act</t>
+          <t>The good news is that almost everything you can imagine as an energy source is also something that can be made to work to produce hydrogen</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Going further if we aggressively improve efficiency by four or five percentage points then emissions could fall by 250 metric tons about 13 percent of last years carbon dioxide emissions from coal power</t>
+          <t>I think the increased production has been very good for our economy but my concern is that the technology that we need to keep production cleanby clean I mean carbon greenhouse gas emissions from production greenhouse gas emissions in transportationthat they are not there to keep up with the demand that would increase if we lifted the export ban</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Every piece of equipment that a retailer uses to dispense fuel has to be listed as compatible with that fuel and up until about 10 years ago there were no dispensers listed for above E10</t>
+          <t>Most of the gas we will find onshore in the future will be unconventional gas that is highercost and lowermargin</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>We see this in the programs that have received proposed budget increases like the 29 billion for the Office of Energy Efficiency and Renewable Energy a 40 percent increase</t>
+          <t>Although I recognize the role that nuclear power plays in our Nations longterm energy strategy and the need to properly store expired nuclear fuel I remain strongly opposed to any effort to reinstate Yucca Mountain</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>An ethanol plant in these areas is an economic engine that revitalizes those areas in demonstrable ways</t>
+          <t>As the FERC commissioners make clear in their letter a thorough assessment of the impacts of for example the proposed Clean Power Plan requires the ongoing input of diverse perspectives and expertise</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Michael C Burgess Congress established the Corporate Average Fuel Economy program in 1975 to improve vehicle fuel economy reduce oil consumption and secure the Nations energy independence</t>
+          <t>Leading Democrats are calling for the elimination of nuclear powerfortunately not our Chairman herebut nearly every single major candidate wants to eliminate or phase out nuclear power</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>And we under this plan would not have the flexibility to build a new coal plant if natural gas prices go up because the technology is not available to be able to do it in an economic way that would make it possible to do it</t>
+          <t>Offering alternatives that must be included by the Secretary is an unnecessary infringement on the agencys authority and expertise but granting this preferential treatment to hydropower interests is patently unjust unfair and inconsistent with every other element of the Federal Power Act</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,37 +2838,37 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Remove Market Barriers The first problem we need to solve is a procedural barrier that keeps solar energy from accessing the electricity market</t>
+          <t>I guess what I would conclude you said you would not put a roadblock up to exporting coal</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>We are now in the midst of preparations for an important transitionfrom the prelicensing role defined for NRC in statute to the role of regulator and licensing authorityif a decision is made to authorize the Department of Energy DOE to submit a license application for Yucca Mountain</t>
+          <t>Our testing of mercury emissions indicates removal rates well in excess of the 90 percent required by the Mercury and Air Toxic Standard Rule</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Secretary Moniz I want to talk to you specifically about access and equity in the energy transition</t>
+          <t>A key responsibility of this Committee is to develop and ensure implementation of a Strategic Plan for disposition and consolidation of special nuclear material</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>There are a lot of options available to us in the short and long term to produce hydrogen from a variety of different sources and thats one of its attractions</t>
+          <t>In 2000 these nuclear power plants produced a record 755 thousand gigawatthours of electricity</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,167 +2878,167 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Now sir since coming to the EPA I would like to ask you have you met with the American Petroleum Institute</t>
+          <t>Commander Lippold are you concerned that this legislation essentially permanently lifts the ban even though we may start to see a decrease in oil production as early as the 2020s</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>We are currently bound to a petroleum infrastructure and before drivers will purchase a fuel cell vehicle they have to have confidence in a hydrogen refueling infrastructure</t>
+          <t>Its very simple Because they have no incentive whatsoever to give access to the resources to oil companies</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Thus those tax policies stifled the industry at a time when US energy demand was increasing significantly</t>
+          <t>Siemens Ford and Volvo have all made engines that reduce particulate emissions by more than 90 percent and nitric oxides similarly remarkably reduced</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>The result has been policies that deter and forestall increased usage of natural gas which is after all the nations most environmentally benign and costeffective energy source</t>
+          <t>I believe that we should ask ourselves how Federal investment into clean energy can improve the lives of our constituents and our communities</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>The money basically comes from private investors in Kyoto party nations like in Europe who choose to get some of their emissions credits through the clean development mechanism by investing in countries like China or India or African countries or developing countries around the world</t>
+          <t>Secretary Moniz I want to talk to you specifically about access and equity in the energy transition</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>In Brazil where a high percentage of ethanol fuels are sold consumers do indeed consider energy content pricing rather than simply buying the cheapest fuel</t>
+          <t>There are a lot of options available to us in the short and long term to produce hydrogen from a variety of different sources and thats one of its attractions</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>One of the technologies we are currently applying alongside of the SAGD is cogeneration a very energyefficient process that produces both steam for our operations and electricity for the sale to the grid</t>
+          <t>And I visited Oregon Techs oneofakind geothermal plant in August and saw firsthand how they are taking advantage of great renewable resources in the Klamath Basin</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>But it is now 2015 and global and domestic oil markets have changed significantly we would all recognize that and SPRO needs to be modernized</t>
+          <t>Benefiting from the economyofscale by operating and servicing a larger number of nuclear plants within a single organization these companies will be in a position to handle the financial and technological challenges that must be managed in launching the next generation of nuclear plants</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>It is more important than renewable technology development more important than any efficiency improvements and more important than advances in nuclear energy development</t>
+          <t>To highlight a few first we should reestablish and expand Federal agency targets for annual improvements and energy efficiency renewable energy and other key metrics and make needed changes to unlock the use of contracting mechanisms that leverage private funds for public efficiency and renewable projects</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>I share Mr Shimkuss concerns about the effect of carbon cap and trade on this economy</t>
+          <t>I think its increasingly obvious that the word green here in this case really only means low carbon</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Collectively NACS and SIGMA members sell more than 75 percent of the gasoline and diesel fuel purchased by American consumers each year</t>
+          <t>Finally we must determine the most environmentally sound methods of increasing energy supplies for our country</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>NNSA is responsible for overseeing the approval while consulting the Office of Nuclear Energy and the DOE general counsel in addition to interagency coordination</t>
+          <t>The money basically comes from private investors in Kyoto party nations like in Europe who choose to get some of their emissions credits through the clean development mechanism by investing in countries like China or India or African countries or developing countries around the world</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>I mean that is why we want gasoline or diesel or biofuels or something</t>
+          <t>So this slide shows how you would replace one nuclear reactor that is 1154 megawatts with wind</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>My own research has focused on understanding and quantifying the effects of reductions in mercury emissions</t>
+          <t>The Commission recently met with state regulators from regions that will be most affected by high natural gas prices to discuss best practices in state conservation and hedging programs</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Well we have already issued a New Source Performance Standard that captures the volatile organic compounds in the emissions from unconventional gas when hydrofracking happens</t>
+          <t>I am pleased to present the administrations views on the need for comprehensive energy legislation</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>We encourage Congress to learn from States like New Mexico when implementing programs to reduce greenhouse gas emissions</t>
+          <t>Because the answer is then if you take something like the Quadrennial Energy Review Mr Mullin</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Considering the nations maximized operational capacity increased reliance on imported oil and strained refining infrastructure any complicating factors in the gasoline distribution chain refining outages or multiple smallmarket fuel formulations can easily impact overall supply and consumer costs</t>
+          <t>We have the chance to turn a major liability into a valuable commodity through which the department can generate new revenue to help expand their mission as we move towards energy independence and combating global warming</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3048,27 +3048,27 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Soand the other thing I would add is that they are not clean or completely fossilfuel free the way that renewables are</t>
+          <t>The Chair would recognize the ranking member of the Energy and Air Quality Subcommittee Mr Boucher of Virginia</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>For example advanced nuclear technologies might be one thing that you could put into repower an existing fossil generating plant like that</t>
+          <t>NNSA is responsible for overseeing the approval while consulting the Office of Nuclear Energy and the DOE general counsel in addition to interagency coordination</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>History is on the side of those who want to act on climate change those who believe in the power of American innovation and our ability to successfully meet any challenge and who look to the future rather than the past</t>
+          <t>For these technologies air pollutant emissions will be associated only with the transport of the hydrogen to the point of use</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,17 +3078,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Production off Louisianas shore alone contributes an average of 5 billion a year to the Federal Treasury and that was when oil was less than the 68abarrelplus today</t>
+          <t>And the Federal Energy Regulatory Commission oversees many elements of the energy markets that this committee is familiar with including natural gas pipelines and electricity markets while the CFTC oversees natural gas and electricity futures</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>And you know if we look at emissions they really have to be looked at on a global scale</t>
+          <t>In both cases cost is a key consideration helping determine which pollution sources should reduce emissions by how much and on what timetable</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,57 +3098,57 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>The changes would inappropriately expand FERCs natural gas authority attempt to undermine States rights and undermine the important role that other Federal and State agencies play in protecting natural resources for the public</t>
+          <t>I am drafting legislation to examine the nexus between DOEs nuclear research programs and the NRCs licensing capabilities and earlier this week my office sent over the discussion draft</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>We will invest in medical research and clean energy technology</t>
+          <t>So I would just ask that you go and pursue the administration policies that are killing energy production and causing higher gas prices instead of going to Saudi Arabia</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>We must develop a coordinated approach to environmental and energy regulation and we must keep options open for all fuel sources especially coal the dark mineral that offers a light for our energy future</t>
+          <t>A leading example is the Energy Star Program which is delivering significant results</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>But I think you would agree with me that it has been in about the last 10 years or so that it has been used a lot more than it had been because of the necessity of getting some difficult natural gas out of the ground</t>
+          <t>Activated carbon is a specially prepared product of coal or biomass that is able to adsorb many chemicals from gases or liquids</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>So the advantages that you would get from lets say maybe keeping a lid on the Brent price which affects gasoline pricethat advantage still exists and meanwhile the refineries are still operating</t>
+          <t>There is no question that the oxygenate ability of ethanol is a positive</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Senator Dorgan you testified that after reviewing several recent studies on the impacts of LNG exports the Bipartisan Policy Center and Energy Board concluded that domestic gas prices are more likely to drive export levels than exports are likely to determine domestic prices</t>
+          <t>We can all agree that we do need some oil and gas development</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>I would also like to remind everyone that this is a pilot project a 2year pilot project which I think will give the Department of Energy adequate time to assess the situation and it certainly would be of benefit to our country</t>
+          <t>There has been a lot of investment and that has been a lot of indirect jobs that have gone into that in building renewable refinery capacity and it is all happened not at the expense of the petroleum industry</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,17 +3168,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>As we develop a comprehensive national energy policy efficiency and conservation are definitely part of what needs to be a comprehensive plan that also needs to include the development of our own natural resources to reduce our dependence on foreign oil</t>
+          <t>From a consumers point of view the Nation will be better off if we have a wide range of generation options and let the market work out the most cost effective solution to supplying our energy needs over time</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>We need to stop fighting over a diminished pot of money and recognize that our national welfare demands that we enlarge the pot so that no deserving energy technology is starved out of federal RD funding</t>
+          <t>Its trading 30 percent of the West Texas Intermediate benchmark crude oil contract on United States terminals located in the United States and denominated in United States dollars</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,57 +3188,57 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>We have learned that MTBE if leaked or spilled can contaminate water supplies more readily than other components of gasoline</t>
+          <t>IEA found that taking key actions now to reduce emissions could be done at no net economic cost while delay would impose trillions of dollars in costs on society</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>It is in the national interest and the interest for our economy to get this going and Texans we are understanding of energy issues and the necessity of getting energy to market</t>
+          <t>Putting the current situation in a broader more positive perspective however the US has some of the cleanest and least costly fuels in the world</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>This is what he said Simply put the Clean Air Act oxygen mandate slows environmental improvement raises costs and is no longer required to ensure substantial and sustained ethanol use in California</t>
+          <t>Are weas we move forward in supplementing initial fuelsalternative fuels</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Ms Eckdish can you quickly discuss how the nature of diesel engines poses a unique challenge to our local communities</t>
+          <t>We support requiring all lightduty vehicles starting in 2023 to be designed specifically to run on this fuel on at least a 95 octane rating and potentially higher</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>And if I can share more expertise that we have in Texas and the south related to wildfire hazardous fuel reduction and prescribed burning</t>
+          <t>Second did the Department of Energy sufficiently monitor the financial status of Solyndra after loan disbursements began particularly as the market forces seemed to be against them</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>In fact Congress is in the midst of playing local politics with the most important energy project in the United States</t>
+          <t>And what is the US consumption of gasoline per day</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3248,47 +3248,47 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>No matter what decision we make on Yucca Mountain we still have a nuclear waste disposal issue</t>
+          <t>Going further if we aggressively improve efficiency by four or five percentage points then emissions could fall by 250 metric tons about 13 percent of last years carbon dioxide emissions from coal power</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Just a few short years ago many would have scoffed at the suggestion that America could produce enough domestic energy to expand its exports or that low natural gas prices would induce a manufacturing renaissance</t>
+          <t>And so I think that to help wean Europe off of Russian energy this might be a good thing</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>While each regional electric system has its own unique characteristics in general coal and nuclear plants have long supplied base load power while natural gasfired units have been used as the predominant source of loadfollowing and peaking capacity</t>
+          <t>She thought everybody had asthma because they are all breathing that diesel smoke and toxic fumes</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>I think that is an incredibly positive development and in fact the predictions of all the oil growth that Raymond James and Citigroup have made all assume that those new rules are going to be implemented yet we are going to have this explosion in oil production yet with the production of which offshore is going to be much safer for the workers and for the environment</t>
+          <t>Today Big Oil and Big Coal have been working with the Republican thought police to comb through each and every reference to global warming pollution in the Clean Air Act and then disappear them sending scientific consensus down the memory hole at the expense of public health and welfare</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>So I am a bit confused because Ms McCabe testified that the EPA found that fuel efficiency technology development was moving faster than they had expected and is being implemented in the early years of the program</t>
+          <t>For example low NOINFXINF burner technology developed through the program is now on 75 percent of US coal fired power plants</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,17 +3298,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>As shown in Figure 3 two consequences of this flat production have been significant shortterm increases in natural gas prices reaching to near 1000MBtu combined with a substantial increase in its longterm price trend</t>
+          <t>Now sir since coming to the EPA I would like to ask you have you met with the American Petroleum Institute</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>And I see no way that energy costs are going down</t>
+          <t>Should the interstate shipment of coal be stopped because of the pollution it causes</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,27 +3318,27 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>This of course means that we will have to have an increase in nuclear waste and we need to safely store it</t>
+          <t>We know from past statistics that the solar industry is in the top 10 growing industries in our country</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>This bill sets out a national strategy to assist US clean energy technology companies with export assistance to find new markets for their products and services and to better compete in the international marketplace</t>
+          <t>Just a few short years ago many would have scoffed at the suggestion that America could produce enough domestic energy to expand its exports or that low natural gas prices would induce a manufacturing renaissance</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>OTHER ISSUES Many other issues are under consideration with respect to a fuels title in an 2003 energy bill</t>
+          <t>While each regional electric system has its own unique characteristics in general coal and nuclear plants have long supplied base load power while natural gasfired units have been used as the predominant source of loadfollowing and peaking capacity</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3348,17 +3348,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>I think its increasingly obvious that the word green here in this case really only means low carbon</t>
+          <t>Last year US production increased over a million barrels a day and if we were to repeal the ban on crude oil exportsnow this is an opinion</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>The Syrian representative a member at the time of the 661 Committee with support from other delegations questioned the reliability of the figures we quoted which we had drawn from publicly available oil industry publications</t>
+          <t>Mr Linn and Mr Duplessis obviously with this being the largest oil spill in the history of our country theres lots of media attention</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>And many of the coops in my district have supported an alloftheabove energy policy</t>
+          <t>That being said Dr Friedmann how do you react to the allegations that the administration is waging this war on coal</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>So we could take compliance I think from their current permit applications or new permit applications from generating stations and take that data put it into a database and ultimately from that use it to determine a greenhouse gas performance standard for particular plants that were into the interconnect</t>
+          <t>Under this scenario a state could never achieve attainment status with its own efforts rather the ability of states to reach attainment would depend on the willingness not only of other states but also of nations around the globe to reduce their greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,17 +3388,17 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>The nuclear industry is demanding that you and your constituents the American taxpayer flip the bill for an unnecessary but more importantly unsafe project</t>
+          <t>Were very pleased to be here to discuss the final report of the Commission to Review the Effectiveness of the National Energy Laboratories</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Economies are built on energy and materials</t>
+          <t>We recently canceled a clean coal boiler project that is a good example of this potential outcome</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Is that enough reliance or should we do modeling before we resume exploration and drilling in the Gulf of Mexico</t>
+          <t>OTHER ISSUES Many other issues are under consideration with respect to a fuels title in an 2003 energy bill</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3418,47 +3418,47 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>But if only 2 percent of the natural gas escapes through to the atmosphere then we are going to be in worse shape than if we used coal</t>
+          <t>But domestically it has both led to a tremendous renewal in manufacturing170 billion capital invested in just in the kind of the chemical arena and by the way also reducing carbon emissions</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>And there are a lot of factors for this but one of the big reasons is this massive drive towards ethanol</t>
+          <t>The Syrian representative a member at the time of the 661 Committee with support from other delegations questioned the reliability of the figures we quoted which we had drawn from publicly available oil industry publications</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Chairman Meserve I have got a series of questions about the transportation of nuclear waste</t>
+          <t>The programs were talking about today like the section 1603 tax grant the Department of Energy weatherization program and the DOE loan program have improved the lives of citizens around this country creating jobs heating homes and providing resources to this Nations energy innovators</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>I have been downstairs at the hearing on subsidies and price gouging on gas prices and we will be bouncing back and forth all day</t>
+          <t>Chairman Shimkus I would like to point out one in particular the suspension of the Nuclear Waste Fund which we argued we needed to do</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>We have done that in a way that doesnt single out any fuel supply</t>
+          <t>US carbon trading is coming</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>For instance over the last several years FERC issued two landmark orders facilitating energy storage and aggregated distributor energy resources participation in our organized wholesale markets</t>
+          <t>There is no plausible scenario that I have ever seen where African carbon emissions are going to affect global emissions so if it is a global problem the problem is in the current emitting countries it is notyou know us denying Ghana two or three natural gas power plants is going to have absolutely zero affect globally</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>And what is the US consumption of gasoline per day</t>
+          <t>As far as we can tell and we have tried to look at this at EIA we cant really see a big impact in the price of gasoline from what happened with RINs in the first quarter of this year</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3488,27 +3488,27 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>I am concerned that you all dont get noticed under the Clean Power Plan for interaction about what is going to happen when the plants close down</t>
+          <t>Above all the rhetoric and the different reasons why many of us oppose the Yucca Mountain project this committee and this Congress must ask itself whether the Nuclear Waste Policy Act has been followed as Congress intended</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Accordingly I request that the Agency work with Congress particularly Chairman Shimkus Mr Welch and me as we try to develop interim and longterm solutions fuel solutions that are good for the environment and good for auto mileage good for the American consumers good for the agricultural and ethanol interest and really good for all impacted stakeholders</t>
+          <t>We have done that in a way that doesnt single out any fuel supply</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>In addition TIGR has also sequenced a wide range of important environmental microbessome of which live in extreme environments but may be critically important to the health of the planetand that carry out a variety of interesting metabolic reactions including degradation of cellulose and other organic matter precipitation of heavy metals such as uranium from solution and production of methane and hydrogen as potential new sources of fuel</t>
+          <t>A delay will also give time for utilities to avoid what appears to be an overreliance on natural gas</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,27 +3518,27 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>The technology allows older coal plants to be retrofitted to burn cleaner eliminating the hassle of permitting a new power plant</t>
+          <t>We are approaching the dawn of as I made reference to in that film the new American energy era a time of energy abundance security and yes even independence</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>In 2006 we actually voluntarily capped our own greenhouse gas emissions</t>
+          <t>The job creators the haulers the steel mills have all lost the ability to create jobs because of a policy that was designed and I will just end on this a policy that was designed to protect us against state oil interests</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>I am drafting legislation to examine the nexus between DOEs nuclear research programs and the NRCs licensing capabilities and earlier this week my office sent over the discussion draft</t>
+          <t>For instance over the last several years FERC issued two landmark orders facilitating energy storage and aggregated distributor energy resources participation in our organized wholesale markets</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>In fact a new EIA Commission Study concludes that oil refiners would have quote no problem quote meeting a requirement to produce 95 RON gasoline beginning in 2022 and assumes that refiners would meet that standard with E10 gasoline</t>
+          <t>Although more than half the increase in natural gas consumption between 2000 to 2020 is expected in the East the Westincluding Canadian imports and most of the Gulf Offshoreis expected to provide approximately 80 percent of the incremental lower 48 natural gas supply in the reference case</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,17 +3558,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Do you as Commissioner Norris stated the question is not whether we reduce carbon pollution but how and EPA has an answer embodied in the Clean Power Plan and that is what they are proposing as a start</t>
+          <t>Lawmakers must examine the welltowheels cost and impact of EVs from power plant energy distribution to battery disposal</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Today Big Oil and Big Coal have been working with the Republican thought police to comb through each and every reference to global warming pollution in the Clean Air Act and then disappear them sending scientific consensus down the memory hole at the expense of public health and welfare</t>
+          <t>Since the drafts release the Environmental Protection Agency has issued a finding that greenhouse gas emissions pose a threat to public health and welfare</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,17 +3578,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>My advice to you would be that there would be incentives for the continued investment and development of technology to reduce carbon which does not yet exist</t>
+          <t>producing the same oil that then we would have to be paying more for because then it would be coming from another country</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>This group spent over two years evaluating and documenting best practices from across all types of energy pipeline systems</t>
+          <t>Now let me share some of our observations about the futures markets specifically for heating oil and natural gas</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>September 29 2008 an eightinch high pressure gas line at the YPad location separated sending three pieces of pipe to the tundra</t>
+          <t>This group spent over two years evaluating and documenting best practices from across all types of energy pipeline systems</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Congressman if you dont mind I think I will jump into this first and I would ask maybe to submit for the record the most recent comprehensive study conducted by the Department of Energys Argonne National Lab which looked at all of the energy balance studies that have been done over the past 10 and 15 years and concluded that without question ethanol has a positive energy balance</t>
+          <t>Ultimately advanced concepts such as that of the DOEs Vision 21 program offer the advantages of clean efficient power with simultaneous production of liquid transportation fuels to reduce our dependence on imported petroleum</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3618,27 +3618,27 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>The conference report established funding for an advanced nuclear fuel recycling program aimed at developing proliferationresistant nuclear fuel recycling and transmutation technologies</t>
+          <t>The United States has such incredible energy abundance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>The fuel diversity should be a cornerstone of our national energy policy as an important hedge against supply disruptions and price volatility</t>
+          <t>But we do have an oil crisis</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>First engage the consumer in reducing their own energy use and carbon footprint through the Energy Star Program</t>
+          <t>And you indicated up front that innovation and energy was one of your was one of your goals</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3648,37 +3648,37 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Has the RFS reduced the need for foreign oil</t>
+          <t>As the DOE continues to delay honoring its contracts with the utilities to remove spent nuclear fuel from plant sites both the amount of SNF and HLRW stored and the costs associated with storing it increase</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Estimated potential energy savings expected to result when this program is fully implemented are in the 35 range</t>
+          <t>The US Senate has twice passed a RPS and the majority of Senators on the energy bill conference supported the Bingaman RPS amendment</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>It would affect ethanol prices to some extent</t>
+          <t>These are just a few of the growing costs of carbon pollution</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Well let me just ask you this then are you basing determinations on LNG exports in part on those discussions with the G7 nations</t>
+          <t>In the next 2 weeks large oil pipeline operators will be in compliance with the required baseline testing deadline of the highest risk segments set by the regulations</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,17 +3688,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Make no mistake the Clean Power Plan is coerciveeither a state comes up with a plan that meets with EPAs approval or EPA will impose its own Federal Implementation Plan</t>
+          <t>WANO is organized through regional centers and includes every operating nuclear electric plant in the world</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>We have a distinguished panel that will cover all aspects of the issue from coal production to power generation from labor issues to environmental impacts from clean coal technology to consumer impacts</t>
+          <t>3 would additionally allow substitutions of Transportation Control Measures in a SIP without revisiting the SIP approval process or making a new conformity determination provided that the new measures achieve an equal or greater emissions reduction</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,27 +3708,27 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Sometimes we will give them energy sometimes they will give us energy</t>
+          <t>Oil prices are manipulated at the top by OPEC often for the express purpose of weakening competition including in the oil industry</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>And one of the big dilemmas that we face and it is being argued here I think largely around this question of decoupling is what is the dislocation that occurs when you go from one energy policy to a new one</t>
+          <t>In fact a new EIA Commission Study concludes that oil refiners would have quote no problem quote meeting a requirement to produce 95 RON gasoline beginning in 2022 and assumes that refiners would meet that standard with E10 gasoline</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>At the risk of going a little bit off topic for what this panel was asked to talk about which was lowcarbon electricity and carbon capture and storage and renewables I wanted to at least frame the issue as also associated with the renewable fuel standard that was passed by this Congress previously</t>
+          <t>This bill includes vital provisions to support domestic clean energy manufacturing and export promotion</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3738,47 +3738,47 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>I think we need to increase conservation and weatherization</t>
+          <t>How many are actively involved in producing ethanol or biodiesel portion of the refineries</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>This need not be limited to natural gas or other energy products</t>
+          <t>And three accelerate the deployment of clean energy infrastructure</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Sir I think the difficulty with hydrogen is around the infrastructure and that would depend on the investments that were necessary to transport it and store it and all of that I think happens over a much longer period of time</t>
+          <t>The electric mix ofin electricity generation today as I understand it is coal 45 percent nuclear 20 natural gas 23 hydro seven and renewable 36</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>The first one is that world oil demand has grown rapidly in the last several years putting upward pressure on price</t>
+          <t>Some Republican Members cannot seem to decide whether they like cheap natural gas or see it as a threat that must be overcome to protect the coal industry</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>To highlight a few first we should reestablish and expand Federal agency targets for annual improvements and energy efficiency renewable energy and other key metrics and make needed changes to unlock the use of contracting mechanisms that leverage private funds for public efficiency and renewable projects</t>
+          <t>But for the sake of our consumers our utility businesses and Americas entrepreneurs and innovators we as a Nation could take a better course of action and enact a national energy policy to begin the transition to a lowcarbon economy</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>As far as we can tell and we have tried to look at this at EIA we cant really see a big impact in the price of gasoline from what happened with RINs in the first quarter of this year</t>
+          <t>Dont you think particularly dealing with climate change and carbon because if a ton of carbon goes up in Houston Texas and a ton of carbon goes up in China it is basically the same on the worldwide impact unlike some of our other pollutants</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,17 +3798,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Over the last decade we have emerged as the worlds leading producer of oil and natural gas and at the same time we lead the world in CO2 emission reductions a fact that proves that energy production and environmental protection are not mutually exclusive goals</t>
+          <t>But in fact the Department of Energy Clean Energy Future study I mentioned above uses the same model run by EIA and reaches dramatically different conclusions</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>And what we need to do is focus on how can we most efficiently reduce consumption and help reduce those overall energy costs</t>
+          <t>They are going to have to figure out what problems that will cause with the disconnect with our present Georgia gasoline</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,27 +3818,27 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>And of course it is troubling as a consumer but also I mean I guess because of theof 10 percent ethanol I spend a lot of time at my lawn mower repair shop Lowerys Motors in Lewisville Texas and he said that the ethanol in gasoline had been very good for the lawn mower repair business or the small engine repair business because he gets a lot of business</t>
+          <t>One way that I believe the commission can help to ensure reliability is through open communication and a strong working relationship with the EPA the Department of Energy the States and NARUC the North American Electric Reliability Corporation or NERC regional transmission organizations independent system operators and industry</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>And so figuring out a mechanism to make sure we can do the work necessary to be able to fully use hydropower is critical</t>
+          <t>With regards to research and investment I do agree with Dr Howard that we believe all sorts of fuel need to be optimized</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>The energy markets of Canada Mexico and the US are becoming increasingly interdependent thanks in large part to the free trade status of energy commodities</t>
+          <t>First the authority Congress set forth for setting efficiency standards the Energy Policy Conservation Act is 40 years old and has not been undated to reflect new technologies and economic realities</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3848,57 +3848,57 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>The other thing we can do is to make sure that any difficulties associated with splashblended ethanol are addressed by allowing us to incorporate ethanol into other ethers for example ETBE</t>
+          <t>Our environment and our economy depend on congressional action to confront the threat of climate change and secure our energy independence</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>As our country pursues interim storage solutionsand ultimately a permanent repository for spent nuclear fuelit is critical that we ensure the funds necessary to safely transport and store this material are available</t>
+          <t>Power companies planned ahead to upgrade or retire power plants and build new resources</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>The mismanagement for example of nuclear waste clean up processes has been an ongoing Department of Energy problem across several Administrations</t>
+          <t>As states get closer to the implementation date for their fuel programs the greater the temptation to change the date rather than deal with the uncertainty</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>These criteria include balancing reasonable cost burdens encouraging lowcarbon technologies providing a uniform national policy and finding the most costeffective ways to reduce emissions without choosing winners and losers</t>
+          <t>But I worry that you will labor mightily and give forth with a capandtrade that will produce a carbon price that is too low to affect physical change</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>It is a lesson for all of us as we consider the location of new LNG terminals as we become more dependent on natural gas</t>
+          <t>My advice to you would be that there would be incentives for the continued investment and development of technology to reduce carbon which does not yet exist</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Secondly the volume of trading in the carbon market will be at least 300 times greater than the SO2 market</t>
+          <t>The American Gas Association represents 192 local energy utility companies that deliver natural gas to more than 53 million homes businesses and industries throughout the United States</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3908,47 +3908,47 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>It has helped integrate renewables online</t>
+          <t>The Nuclear Waste Policy Act of 1982 made the transportation and longterm storage of nuclear waste the responsibility of the Secretary of Energy</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>As you are aware ConocoPhillips supports passage of a comprehensive Federal law establishing a clear and transparent price for carbon</t>
+          <t>What we also do is allow forwhat the legislation does it allow for technology limits 60 percent I think to one technology 90 percent for two and what that is doing there is saying that although wind today is the cheapest form of renewable power generation ultimately because of these cost curves you want to induce more competition and to see oil prices continue to come down</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 10 percent reduction in environmental management an 8 percent reduction in the Office of Science 86 percent reduction in energy efficiency and renewable energy</t>
+          <t>Senator Daschle has introduced S 670 which adopts an ethanol mandate similar to the approach to S 2962</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Right now today natural gas is not competitive in a lot of markets because of the price of fuel and on a 20year levelized cost of electricity dollars per megawatt pulverized coal with CO2 capture is 62 bucks</t>
+          <t>In addition we need to take into account potential threat to the security of gas deliveries to consumers that will occur if we place a greater demand on our production and pipeline delivery capabilities than we have resources to meet</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Do you think that all drinking water systems that are located near wastewater treatment facilities that accept drilling waste should monitor intake water for radioactivity and other potentially hazardous byproducts of these activities</t>
+          <t>But our bipartisan group has reached out and said you solveyou give us a waiver on ethanol</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -3958,77 +3958,77 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>The company also engages in new hydropower development through the building of new plants at existing dams</t>
+          <t>Whether surface temperatures will increase due to radiativelyactive emissions is not clear</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>This bill would require the Secretary of Energy to establish a program relating to the physical security and cybersecurity for pipelines and liquefied natural gas facilities</t>
+          <t>The reference case includes the effects of several policies aimed at increasing energy efficiency in both enduse technologies and supply technologies including minimum efficiency standards and voluntary energy savings programs</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>So maybe someday we have this hole underground it can be used for longterm nuclear storage</t>
+          <t>As shown in Figure 3 two consequences of this flat production have been significant shortterm increases in natural gas prices reaching to near 1000MBtu combined with a substantial increase in its longterm price trend</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Secondly the other consistent thing in that report as I stated earlier is the natural gas impact is having on the marketplace in general in terms of retiring old inefficient plants</t>
+          <t>It has helped integrate renewables online</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>PSEG our company our company is already beginning to invest heavily in alternative energy</t>
+          <t>Seeing the issues that we have had with our voluntary domestic carbon market I can only imagine how these issues will be compounded when the value of potential offsets increases and we are relying on verifying offsets in the developing world</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>But the problem is that even with this particular issue included with the high gas prices we are not seeing any correspondence between underlying costs and prices in the wholesale market</t>
+          <t>Right now today natural gas is not competitive in a lot of markets because of the price of fuel and on a 20year levelized cost of electricity dollars per megawatt pulverized coal with CO2 capture is 62 bucks</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>As a result diesel vehicles will achieve gasolinelike emissions levels</t>
+          <t>I was sitting here listening thinking of a hearing we had not many weeks ago and Mr Greenspan was with us talking about the current situation with natural gas supplies and pricing in this country</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Last year nationwide production and transportation of gas added 62 billion to Federal and State government revenues and it could elevate to 111 billion by 2020</t>
+          <t>As a result diesel vehicles will achieve gasolinelike emissions levels</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>I would imagine just engaging in the economywide outcome with carbon pricing Ms Palmer</t>
+          <t>Republicans claimed thenjust as they do nowthat the solution was to produce more oil domestically</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>We have partnerships throughout the United States and with universities with national labs with all kinds of differentand other companies as well looking at everything from hydrogen to of course batteries and electrification of the vehicles and what is happening with compact natural gas and everything else</t>
+          <t>The fuel diversity should be a cornerstone of our national energy policy as an important hedge against supply disruptions and price volatility</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4058,17 +4058,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Texas Pacific and Kohlberg Kravis Roberts the famous KKR purchased Texas Utility Corporation and agreed to terminate 8 of 11 proposed coalfired power plants</t>
+          <t>We have a great record in the Northwest on saving energy through conservation</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>The good news is that almost everything you can imagine as an energy source is also something that can be made to work to produce hydrogen</t>
+          <t>that material out to do exactly what Canada is doing to do exactly what needs to happen on the FremontWinema National Forests where you have more than 200000 acres of federal forestland that is exactly that way buginfested lodge pole pine when that material comes out why in the Devil do we say it is not renewable and cant be turned into pucks like this to help reduce carbon from coal</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>In my testimony today I will describe the CFTCs oversight of the energy futures markets</t>
+          <t>The Association of Oil Pipe Lines is a trade association of owners and operators of crude oil and refined petroleum product pipelines</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Its trading 30 percent of the West Texas Intermediate benchmark crude oil contract on United States terminals located in the United States and denominated in United States dollars</t>
+          <t>And what we need to do is focus on how can we most efficiently reduce consumption and help reduce those overall energy costs</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4098,17 +4098,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>The bill would short circuit the established review process for pending and future LNG export applications</t>
+          <t>So in a tangible way the natural gas prices do affect our operations because of the energy costs</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>But domestically it has both led to a tremendous renewal in manufacturing170 billion capital invested in just in the kind of the chemical arena and by the way also reducing carbon emissions</t>
+          <t>Timely advance in clean coal technology will require significant cost share funding for research and development projects and demonstrations of emerging technology and tax incentives to reduce the risks and encourage early development and refinement of the new technologies</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Coalfired electricity is only cheap if one ignores the health and economic costs</t>
+          <t>At the risk of going a little bit off topic for what this panel was asked to talk about which was lowcarbon electricity and carbon capture and storage and renewables I wanted to at least frame the issue as also associated with the renewable fuel standard that was passed by this Congress previously</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4128,37 +4128,37 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Encouraging the broadest range of fuel technologies is critical to the type of transformational change necessary to improve our Nations energy security</t>
+          <t>However while we look forward to advanced nuclear technology development it is long overdue to solve our Nations nuclear waste disposal challenge</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Energy demand growth over the past 20 years has been met by the steady exploitation of the large investments made during the last energy boom period in the 1970s</t>
+          <t>In 2017 US carbon emissions were the lowest they have been since 1992 and are projected to remain steady in upcoming years more than 10 percent below 2005 levels</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Intense foreign competition from Stateowned enterprises poses another challenge for US companies particularly in the civil nuclear sector</t>
+          <t>Now we have lowcost fuel</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Governor Corzine has made it clear that lowering energy prices is important for our economic Mr Shimkus</t>
+          <t>The Report notes that The energy burden on lowincome households as a proportion of income is four times greater than for other American households</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4168,27 +4168,27 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>The 2 percent allocation for refiners is intended to keep them competitive and encourage energy efficiency improvement</t>
+          <t>Encouraging the broadest range of fuel technologies is critical to the type of transformational change necessary to improve our Nations energy security</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>We all want safer and more fuel efficient cars</t>
+          <t>A more predictable rational and flexible air quality permit process including reforms to newsource review will allow for more investment in domestic facilities including carbon capture and a stronger domestic manufacturing base instead of production in other countries who dont share our countrys commitment to stewardship</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Just 10 years ago most ethanol plants capacity was 10 to 15 million gallons per year</t>
+          <t>The method can accept a variety of feedstocks including natural gas coal and biomass</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4198,67 +4198,67 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>I know of nobody that could not get natural gas if they were willing to pay the price unless it was a pipeline constraint</t>
+          <t>One industry study estimates that there will be 600000 career opportunities for women and minorities in energy in the years ahead</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Along these same lines the Nuclear Waste Policy Act of 1982 could be amended to provide the Commission with the sole authority to establish standards for highlevel radioactive waste disposal</t>
+          <t>Well you want policies that can lead to even faster and cheaper emissions reductions than the carbon price would achieve on its own</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>This bill is a radical rewrite of the Clean Air Act that would block any real reductions in carbon pollution from coal plants and it ignores 40 years of experience</t>
+          <t>2997 also eliminates the emissions reporting requirement for releases associated with manure under CERCLA Section 103 and Section 304 of EPCRA</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>And either the oil itself or something in it is whats likely causing this outbreak</t>
+          <t>Just 10 years ago most ethanol plants capacity was 10 to 15 million gallons per year</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>All of the research that we have done points toward the need for a full portfolio generation options which includes the need for all forms of thermal generation including nuclear and coal</t>
+          <t>In global warming that means putting a moratorium on building huge new sources of COINF2INF emissions</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Creation of a governmentindustry partnership to pursue two short term objectives resolving technical andor economic issues associated with the new nuclear plant designs and validating the new licensing processverifying that it works as intended and will not place private sector investment at risk</t>
+          <t>Last year nationwide production and transportation of gas added 62 billion to Federal and State government revenues and it could elevate to 111 billion by 2020</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Now were focusing on climate tact and climate energy</t>
+          <t>This bill is a radical rewrite of the Clean Air Act that would block any real reductions in carbon pollution from coal plants and it ignores 40 years of experience</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,17 +4268,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Recently the Subcommittee received testimony it would take at least seven to nine years to just to begin transporting used fuel regardless when a site is available</t>
+          <t>Today we are examining a law the Renewable Fuel Standard or RFS that is driving development of those new lowcarbon renewable fuels</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>So in a tangible way the natural gas prices do affect our operations because of the energy costs</t>
+          <t>If you export natural gas you factor into that equation the effect on US consumers and whether it is in the best interest of the United States</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Could we talk for just a minute about the energy policy that is being followed by this administration</t>
+          <t>By definition costeffective conservation is less costly than any other energy resource and conservation reduces consumers bills</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4298,27 +4298,27 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Are these coal refusetoenergy facilities typically located in a smaller community or a larger community</t>
+          <t>And the clean energy sector employed roughly three times more workers than the fossil fuel sector in 2019</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>The environment doesnt benefit and you have these constricted flows and it seems to me it does not benefit anybody other than the industry that is out there designed to shut down any progress on energy development</t>
+          <t>Primarily because of the growth in China and India for oil demand we believe oil prices will continue to increase which will place greater pressure on gasoline and diesel prices</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>The USGS has actively participated in two previous Federal reviews of MTBE and other oxygenates in gasoline</t>
+          <t>And I see no way that energy costs are going down</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -4328,17 +4328,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Energy efficiency helps meet our energy needs without hurting the environment</t>
+          <t>Production off Louisianas shore alone contributes an average of 5 billion a year to the Federal Treasury and that was when oil was less than the 68abarrelplus today</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>If we want the industry to be capturing carbon in 2020 shouldnt we be telling them about that now in order to create the market signal</t>
+          <t>As you know Mr Chairman there have been many developments in the Nations energy portfolio since FERC issued Order No</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4348,17 +4348,17 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>In this same vein expert witnesses are called before us today to discuss policies to deeply decarbonize our economy and strengthen our infrastructure against threats like climate change</t>
+          <t>Heating oil provides heat to only about 7 percent of the fuel consumed by residences on a national basis but the demand is not uniformly distributed the Northeast consumes the about 73 percent of all the heating oil used in the country</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Just as an illustration to make it as clear as I can with a chart that looks fairly complex I will try to simplify it at just how dramatic the changes are that I refer to in thein what is happening today in clean energy</t>
+          <t>The depressing part of my introduction is I realize I have been at this for 3 decades as part of the House of Representatives staff during the oil embargoes and after I was with Mr Garvin in 1983 and 1984 in the Energy Department running conservation and renewable programs and have been a consumer advocate for the last 10 years</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4368,17 +4368,17 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>As the FERC commissioners make clear in their letter a thorough assessment of the impacts of for example the proposed Clean Power Plan requires the ongoing input of diverse perspectives and expertise</t>
+          <t>In recent years we have seen the impact of relying almost exclusively on natural gas based plants for new generation tight gas supply higher prices and backlogged projects for natural gas based plants</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>This added step of accountability is crucial to keep an account of delays and avoid the increasing backlog of hydropower relicensing</t>
+          <t>As I say in the blueprint here using energy more efficiently is akin to developing more fuel</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4388,47 +4388,47 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>We believe that the first of these recommendations P0001 related to the use of E911 when damage to a pipeline results in the release of gas or other hazardous substance has been resolved with a change to the best practices and recommendations to OPS earlier this year</t>
+          <t>As our country pursues interim storage solutionsand ultimately a permanent repository for spent nuclear fuelit is critical that we ensure the funds necessary to safely transport and store this material are available</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>New teams will come with expertise something like auditors with expertise in energy trading something like that and if they wont perform theyll be thrown out</t>
+          <t>For the first time in six decades the United States is a net natural gas exporter</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>We are the worlds largest economy but if we do some things that are very draconian on our emissions here in the United States and really all it does is cost us jobs I am very skeptical that the rest of the world is going to follow suit</t>
+          <t>And does that make other forms of energy work better or does it replace them</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>There are tremendous opportunities for further job growth in the clean energy sector but to harness that potential we need to continue to evaluate and recalibrate Federal policies</t>
+          <t>Should this final FIP result in closure of the San Juan plant and mine hundreds of jobs will be lost not only in the coal and power industry on the Nation but in the service support industry and public sector as well</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Im frustrated that the Bush administration is decimating important R D programs and not establishing realistic and attainable goals for our energy future</t>
+          <t>You guys are the guys who can make this happen because of your connection with mostlyyou have some friends over on my side but you have a lot of friends on the Democrat side and they are in charge and so I would plead with you and the other folks who are looking for expansion of energy opportunities the operating engineers the electricians that they hold out for a good bill that they are not going to lose their jobs</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4438,17 +4438,17 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>In 2009 DOE was appropriated about 36 billion under the Recovery Act to increase taxpayer spending on energy efficiency environmental cleanup loan guarantees and various energyrelated research development and deployment projects and activities</t>
+          <t>Instead what weve learned from a steady stream of press reports and congressional hearings is that bullet EPA in fact concluded that greenhouse gas emissions endanger public welfare and submitted its finding to OMB in December of last year</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Significant pillars of our program are deployment of nonCOINF2INF sources of generation like renewables and nuclear reduced COINF2INF emissions through efficiency and the COINF2INF capture from fossil fuels</t>
+          <t>It goes actually to the heart of what I have talked about which is when you look at energy independence and we look at developing as part of a national security strategy and having an energy policy when you look at those refineries and 30 percent being owned by foreign interests when you look at 30 percent of our oil or 27 being imported into the United States if you want to look at it at a freemarket perspective we dont have a free market</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4458,17 +4458,17 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>producing the same oil that then we would have to be paying more for because then it would be coming from another country</t>
+          <t>Energy is the issue and it is one we need to deal with thoughtfully carefully deliberately through the legislative process</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>EPAs greenhouse gas rule will impose a de facto ban on construction of new coal</t>
+          <t>There have been provisions I have disagreed with and think we should revisit like on biomass from forests not counting toward renewable fuel standards seems to be rather absurd</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4478,17 +4478,17 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Number 2 you have got to have six greenhouse gases so the lowhanging fruit that can be accomplished by changes that reduce other greenhouse gases like methane or NOx any of those the hydrofluorocarbons et cetera can help get rid of it</t>
+          <t>Over the last decade we have emerged as the worlds leading producer of oil and natural gas and at the same time we lead the world in CO2 emission reductions a fact that proves that energy production and environmental protection are not mutually exclusive goals</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>The gasoline sulfur standard is a national annual average standard set at 30 parts per million a 90 percent reduction over current national levels</t>
+          <t>We had better find a way to use coal in a clean manner</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4498,47 +4498,47 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>The experts EPA and the National Academy of Sciences have already drawn the conclusion that especially in the short run when we need greenhouse gas reduction the most corn ethanol is increasing emissions by increasing the amount of carbon that is released into the atmosphere</t>
+          <t>That said once again our effort has been focused on deployment and although you might note that in FY 12 we dont request any direct funds for RD in natural gas we continually support natural gas vehicles through the Clean Cities Program our deployment arm and we will continue to do so both vehicles and infrastructure</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>I introduced a bill called the Renewable Energy Jobs Act that will provide pilot programs for training individuals for employment in renewable energy and energyefficient industries on site in these companies</t>
+          <t>Joe Barton Chairman Committee on Energy and Commerce Thank you Mr Chairman for holding this hearing to determine the current status of the Alaska Natural Gas Pipeline</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>The savings from the CAFE proposal like I mentioned is more than three times proven reserves of oil in the United States</t>
+          <t>Strong economic growth particularly in China and the United States is fueling a surge in oil demand</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>1013 would create more red tape and delay and would severely reduce protections for rivers and fisheries impacted by hydroelectric generation</t>
+          <t>American innovation and our abundant energy resources can and should be leveraged to protect our allies around the world from unreliable and unfriendly regimes and promote our interests</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>And Section 401a1 of the Clean Water Act precludes the Commission from licensing a hydroelectric project unless the project has first obtained state water quality certification or a waiver thereof</t>
+          <t>Our staff closely tracked the markets to make sure that no one took advantage of the situation to manipulate the energy markets</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4548,17 +4548,17 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Also because Kansas allows local utilities to flow through the cost of gas to consumers the ratepayers experienced dramatic increases in the cost of natural gas during the winter seasons</t>
+          <t>It is our ability to capture opportunities in lowcarbon technology reduce dependence on imported foreign oil and catalyze improvements in productivity more broadly</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>While that is a viable use for injected carbon we also need to store large quantities of it underground indefinitely and on that front further research development and demonstration is clearly called for</t>
+          <t>This of course means that we will have to have an increase in nuclear waste and we need to safely store it</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -4568,17 +4568,17 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>As a physician and someone who represents constituents who have experience too many environmental injustices I am committed to working with members of this committee to create a cleaner and healthier environment for all</t>
+          <t>I share Mr Shimkuss concerns about the effect of carbon cap and trade on this economy</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>We employ really goodpaying jobs and it is not quite clear to us whether we are qualified under that but certainly we would think we should be because as a result right now there is about 6500000 barrels of oil of refining capacity that is being built outside of our borders much of which is being targeted to come into this country so if we dont have some similar protections and some guidelines we are concerned about leakage and ultimately increasing imports at the expense of our domestic production</t>
+          <t>For natural gas the market is strong and active</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4588,47 +4588,47 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>For the first time in six decades the United States is a net natural gas exporter</t>
+          <t>Chairman Meserve I have got a series of questions about the transportation of nuclear waste</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>As you all know the first export of LNG to scheduled to happen later this month maybe early March at Sabine Pass in Louisiana right next to Texas my own State</t>
+          <t>Reprogramming by nuclear transfer is faster than genebased reprogramming and may entail very different mechanisms that will teach us a lot about how to make pluripotent tissues better</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Electric reliability and environmental protection are both important to this countrys future</t>
+          <t>My testimony today will provide a brief overview of the hydropower licensing program and some of the challenges it faces</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>I think all of us are committed to trying to find out what did take place and put the steps in place that are necessary to make this a safersafer and sounder future for us in terms of oil and gas exploration</t>
+          <t>bullet Efficiency Government policies should encourage the efficient use of energy by insuring a level playing field for competing sources of energy</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>The Clean Power Plan as proposed will call that into question</t>
+          <t>In 2009 DOE was appropriated about 36 billion under the Recovery Act to increase taxpayer spending on energy efficiency environmental cleanup loan guarantees and various energyrelated research development and deployment projects and activities</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>We are still overly dependent on foreign oil from countries that clearly we have seen especially over the last 15 years do not represent our interests and values</t>
+          <t>The first one is that world oil demand has grown rapidly in the last several years putting upward pressure on price</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4648,27 +4648,27 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>This bill includes vital provisions to support domestic clean energy manufacturing and export promotion</t>
+          <t>We are committed to working with Congress to explore ways to maintain or enhance environmental benefits of clean fuels programs while exploring ways to increase the flexibility of the fuels distribution infrastructure and minimize costs</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Benefiting from the economyofscale by operating and servicing a larger number of nuclear plants within a single organization these companies will be in a position to handle the financial and technological challenges that must be managed in launching the next generation of nuclear plants</t>
+          <t>The goals are to reduce foreign oil imports and improve air qualitynot subsidize American industry</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Heating oil provides heat to only about 7 percent of the fuel consumed by residences on a national basis but the demand is not uniformly distributed the Northeast consumes the about 73 percent of all the heating oil used in the country</t>
+          <t>AGA represents 185 local natural gas distribution companies which deliver natural gas to 50 million customers in the United States</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Shutin gas production in the Gulf was 58 billion cubic feet per day or 58 of daily gas production in the Gulf</t>
+          <t>Other FreedomCAR challenges include technical market infrastructure and public policy hurdles before fuel cell vehicles are commercially available and DOEs vision of a petroleum free emission free transportation system is a reality</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -4688,17 +4688,17 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>We dont harness the electricity we can from natural gas we dont sell it we dont pull it up we dont benefit the economy from it</t>
+          <t>Economies are built on energy and materials</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>But in fact the Department of Energy Clean Energy Future study I mentioned above uses the same model run by EIA and reaches dramatically different conclusions</t>
+          <t>We are the worlds largest economy but if we do some things that are very draconian on our emissions here in the United States and really all it does is cost us jobs I am very skeptical that the rest of the world is going to follow suit</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4708,17 +4708,17 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Each day more exploration and development activity in the Gulf is lost</t>
+          <t>In addition the NRC explained to our committee staff that the operator was able to avert core damage in the full power loss scenario by activating a steampowered reactor cooling system also known as the RCIC but some NRC analysts have questioned the ability of this system to function when battery power is lost</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>And he says he bids on a job and he has to be competitive with his bid and then overnight the price of diesel goes up and sometimes it goes up from when he starts the job several times before he finishes the job and there goes his profit</t>
+          <t>September 29 2008 an eightinch high pressure gas line at the YPad location separated sending three pieces of pipe to the tundra</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -4728,17 +4728,17 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>For example for an average family driving 2500 miles a month a 1 gallon runup in gasoline prices as we have seen in recent weeks takes 120 out of their monthly budget if they are driving vehicles that average 21 miles per gallon but it would only take 60 out of their budget if those vehicles average 42 miles per gallon which is within our technical capability</t>
+          <t>We do send ethanol by barge as well but I think in this particular study what we are looking at is toxicity</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>IEA found that taking key actions now to reduce emissions could be done at no net economic cost while delay would impose trillions of dollars in costs on society</t>
+          <t>Throughout the South and Southeast state governments have enacted legislation or implemented new regulations to encourage new nuclear plant construction</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -4748,27 +4748,27 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>However while we look forward to advanced nuclear technology development it is long overdue to solve our Nations nuclear waste disposal challenge</t>
+          <t>The markets are so tight though that if we can moderate demand a little bit our analysis using the same computer models that DOE uses indicates that with 4 to 5 percent energy savings we can reduce these prices over the next decade by 20 percent or more</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>This will result in higherthannormal gas commodity prices even if the winter is relatively mild</t>
+          <t>New teams will come with expertise something like auditors with expertise in energy trading something like that and if they wont perform theyll be thrown out</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>And at that time and today state regulators agree that users of electricity from nuclear power plants should pay for the Federal nuclear waste management and disposal program</t>
+          <t>Fortunately I understand that FERC operations have returned to near normal having cleared much of that backlog allowing the commission to turn its attention towards a host of issues ranging from controversial changes to the RTO capacity markets to how new energy infrastructure projects should be evaluated under FERCs certificate policy</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>He said in his oil statement and again just now that somehow companyan individual company would have to go out and assess the exposure not only to their use of the chemical but to everybody else on the market</t>
+          <t>I know of nobody that could not get natural gas if they were willing to pay the price unless it was a pipeline constraint</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>In addition the NRC explained to our committee staff that the operator was able to avert core damage in the full power loss scenario by activating a steampowered reactor cooling system also known as the RCIC but some NRC analysts have questioned the ability of this system to function when battery power is lost</t>
+          <t>It is in the national interest and the interest for our economy to get this going and Texans we are understanding of energy issues and the necessity of getting energy to market</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -4798,47 +4798,47 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>On the third page of this document listed are two independent spent fuel storage installations</t>
+          <t>PSEG our company our company is already beginning to invest heavily in alternative energy</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>With respect to key goals FreedomCAR is focused on petroleumfree emissionsfree transportation with an emphasis on hydrogen fuel cells and also on systems and components applicable to many types of vehicles</t>
+          <t>Through the Recovery Act we are making hundred million dollar grants in grant funds available to help the transit industry to improve fuel efficiency and reduce emissions for bus rail cars and other transit equipment</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>And Mr Shimkus is from a State that has the most spent nuclear waste in the country</t>
+          <t>You can obviously absorb excess spikes in natural gas prices for a while and indeed many have done that over the last number of years</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Throughout the South and Southeast state governments have enacted legislation or implemented new regulations to encourage new nuclear plant construction</t>
+          <t>In addition ethanol cannot be carried in the nations pipeline system and must be segregated from the wholesale distribution system until its addition at the truck rack</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>We have frequently analyzed the consequence of lower world oil prices on different regions of the world</t>
+          <t>In our particular area if you think of wind turbines or solar panels or efficient gas turbines those rare Earth minerals are not actually a major component of our decision making in where to locate</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4848,27 +4848,27 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>These are just a few of the growing costs of carbon pollution</t>
+          <t>Funding of energy efficiency programs is a key piece of such a public benefits program with discretion provided to states</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>He goes on to say there is sufficient technical basis for the Nuclear Regulatory Commission to issue a license authorizing construction of the facility</t>
+          <t>We just spent 5281 million to retrofit one coal plant to put scrubbers on</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Under this scenario a state could never achieve attainment status with its own efforts rather the ability of states to reach attainment would depend on the willingness not only of other states but also of nations around the globe to reduce their greenhouse gas emissions</t>
+          <t>Massachusettss long and distinguished record investing in energy efficiency is delivering great results</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>coal consumption Coal consumption is dominated by electric utilities which consume nearly 90 of all coal production</t>
+          <t>Of course we are always concerned about keeping gasoline as affordable as possible and some critics of oil exports have raised fears of price spikes</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4888,27 +4888,27 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>While the nodrive program did not produce the desired results the cleaner burning gasoline did</t>
+          <t>We have a memorandum of understanding with them that they deal with the actual drilling process itself the construction of the wells those kinds of things</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>This should not be styled to effectively mandate ethanol use however</t>
+          <t>He goes on to say there is sufficient technical basis for the Nuclear Regulatory Commission to issue a license authorizing construction of the facility</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Stockpiling should be carefully investigated by EPA and the exact amount of gas should be deducted from the critical use exemption totals each year</t>
+          <t>And I guess it is a fine line between market uncertainty and price gouging in many of our minds because people price gouge because consumers are uncertain and they know gas costs are rising correct</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -4918,17 +4918,17 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Let me ask you point blank does it make sense for us to have a regulatory structure where it costs almost four times as much to license a hydropower plant as it costs to license a new natural gasfired plant</t>
+          <t>Everyone in Washington is interested in renewables</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Environmental concerns are extremely important because energy production and consumption involve major externalitiescosts that are not easily reflected in market transactions</t>
+          <t>And either the oil itself or something in it is whats likely causing this outbreak</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>We simply cannot support eliminating the RFS program as the draft envisions without a much stronger signal to the market that ethanols role in our fuel supply will continue to grow</t>
+          <t>And finally the gains in energy efficiency come largely from new technologies and improvement to existing technologies</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4948,27 +4948,27 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Diesel trucks are paying 450 a gallon for diesel</t>
+          <t>3136 correctly understand the importance of not prematurely reimposing the nuclear waste fee especially given the substantial balance and large investment interest which accrues annually</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>It will take the place of 2000 megawatt coalfired power plants</t>
+          <t>Of course some might argue that there is big difference between running a coaltochemicals manufacturing facility and a coaltoelectricity power plant</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>And are you aware of the significant concerns because I know I have heard a lot about it with the pending regulations and their impact on the affordability of wood wood heating</t>
+          <t>MERGERSCONVERGENCE MERGERS PUHCA restricts consolidations between electric and gas utilities operating in the same market again the SEC has been lax in enforcing this restriction</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Ultimately advanced concepts such as that of the DOEs Vision 21 program offer the advantages of clean efficient power with simultaneous production of liquid transportation fuels to reduce our dependence on imported petroleum</t>
+          <t>And you will catch some really good fish and some of the best eating you are going to find right there next to the oil rig</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>We have a very favorable climate for construction approval siting of new power plants new generating facilities</t>
+          <t>Why should we wait for a great big energy bill which may or may not come during your lifetime and mine</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -4998,67 +4998,67 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Yes it is in my opinion highly likely that any living thing that is exposed to high enough concentrations obviously if it is oil and dispersant mixtures are very likely to be poisoned</t>
+          <t>As members of this committee are well aware FERC has been without a quorum since February which has prevented action on crucial energy infrastructure projects</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>The method can accept a variety of feedstocks including natural gas coal and biomass</t>
+          <t>Second my second point the rising US gasoline prices has come at a time of soaring US gasoline production</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Now let me share some of our observations about the futures markets specifically for heating oil and natural gas</t>
+          <t>Energy prices soared and carbon pollution increased</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Our staff closely tracked the markets to make sure that no one took advantage of the situation to manipulate the energy markets</t>
+          <t>This is clear in the repeated attacks on our oil and natural gas industry and its people which has provided tremendous opportunity and driven advances in cleaner energy generation that are benefiting the globe</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>The C2P2 encourages generators and users of coal combustion products to increase the use of coal ash in cement and other construction products</t>
+          <t>So now that youre on the job I wanted to ask you specifically do you believe that greenhouse gas emissions endanger the public health</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>In some conversations that I have had with individuals concerned about some smaller engines those in boats or motorcycles and other specialty vehicles they have had trouble running on even blends with 10 percent ethanol</t>
+          <t>Electric reliability and environmental protection are both important to this countrys future</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>In the first hearing this subcommittee had this Congress my constituent the manager of a local rural electric cooperativethat is a notforprofit entity for those who are in the businessand a former environmental officer at the Illinois Environmental Protection Agency testified that doing so would increase utility rates for again a notforprofit electricity company by 25 percent</t>
+          <t>Collectively NACS and SIGMA members sell more than 75 percent of the gasoline and diesel fuel purchased by American consumers each year</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5068,7 +5068,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Because the States want to be able to enforce requirements on others where they dont have control in their own jurisdiction to make sure that their neighboring States or regions are reducing the emissions</t>
+          <t>For example we believe that production tax credits for renewables should be extended at least ten years and apply to as broad a spectrum of renewables as possible</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -5078,17 +5078,17 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Although I recognize the role that nuclear power plays in our Nations longterm energy strategy and the need to properly store expired nuclear fuel I remain strongly opposed to any effort to reinstate Yucca Mountain</t>
+          <t>The future will belong to the country that builds an energy infrastructure to support a cleaner low carbon economy</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>The Association of Oil Pipe Lines is a trade association of owners and operators of crude oil and refined petroleum product pipelines</t>
+          <t>You have already got your nose under the tent with the emissions part of the car</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -5098,37 +5098,37 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Now we have lowcost fuel</t>
+          <t>We simply cannot support eliminating the RFS program as the draft envisions without a much stronger signal to the market that ethanols role in our fuel supply will continue to grow</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>In summary we believe tomorrows automobiles must be flexible enough to accommodate many different energy sources</t>
+          <t>We strongly support the need for a comprehensive energy policy that focuses on adequate supply sources to aid strategic industries such as ours</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>And there have been a few sites like in Monroe Michigan where there is actually an assembly plant for wind energy</t>
+          <t>And a lot of it had to do with deregulating our domestic environment and making a whole suite of challenges and deciding that we were going to commit to this internationally connected and efficient market for oil and gas and things like that</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>In any event we recognize that projections of energy markets are highly uncertain and are subject to many random events that cannot be foreseen</t>
+          <t>We have a very favorable climate for construction approval siting of new power plants new generating facilities</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5138,17 +5138,17 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Are weas we move forward in supplementing initial fuelsalternative fuels</t>
+          <t>First the nuclear crisis in Japan is now in its fourth week with no end in sight</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Fueling Infrastructure The third challenge we have to overcome is developing business models for the deployment of a hydrogen infrastructure and piloting technologies to support it</t>
+          <t>We need to make sure that across the board from grid modernization that is needed to facilitate EVs to the buildout of electric charging infrastructure to the manufacturing of the vehicles themselves that we are harnessing that opportunity here in the US and with domestic content labor standards we are investing and leading the world in the manufacture of those vehicles and technologies</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>We talked about earlier and some of my colleagues talked about the carbon sequestration and how it is notthe technology is not there at this point in time</t>
+          <t>Our nations comprehensive energy policy must ensure an affordable reliable supply of energy and nuclear energy provides one of the solutions to several policy challenges that our nation faces</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -5168,27 +5168,27 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>And I know that GE in my district is working on advanced battery manufacturing that will address storage capacity for renewables</t>
+          <t>But certainly it is important right now during this time of needed supply with questionable reliability to have any and all energy</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Again we dont have a tax imposed on a person who buys a gas guzzling SUV but we have a gas guzzler tax that we impose on an automobile</t>
+          <t>They must strike a demanding balance between first cost cost of operation and technical features to minimize energy consumption</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>But you continue to hide evaporative emissions by even using tailpipe emissions in my opinion</t>
+          <t>It will take the place of 2000 megawatt coalfired power plants</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -5198,27 +5198,27 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Well you want policies that can lead to even faster and cheaper emissions reductions than the carbon price would achieve on its own</t>
+          <t>First it is the tax subsidies for unconventional energy that by far have the most detrimental effects on markets prices and consumers</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>And I hope that we can find new ways to use coal even cleaner than we are using it today</t>
+          <t>As you will hear today however we believe that elements of the alternative fuels discussion draft as currently constructed will not fully achieve those objectives and may ultimately be counterproductive</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>First the authority Congress set forth for setting efficiency standards the Energy Policy Conservation Act is 40 years old and has not been undated to reflect new technologies and economic realities</t>
+          <t>As a consequence of the RFS we are now just 45 percent dependent on foreign oil for our liquid transportation fuels</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -5228,47 +5228,47 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>So what we say is we support a vigorous RD program both in reactor development and in recycling reprocessing spent fuel</t>
+          <t>Can you elaborate why this makes such a difference for your members in providing greater certainty to prospective purchasers for redevelopment of petroleum contaminated brownfield sites that are cleaned up under a State program</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>My testimony today will provide a brief overview of the hydropower licensing program and some of the challenges it faces</t>
+          <t>You say coal is not competitive</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Our esteemed colleague Chairman Emeritus John Dingell on the Democratic side who led the negotiations on the 1990 Clean Air Act Amendments wrote I would have difficulty concluding the HouseSenate conferees who rejected the Senate greenhouse gas regulatory provisions contemplated regulating greenhouse gas emissions or addressing global warming under the Clean Air Act</t>
+          <t>Again less American jobs more dependence on foreign oil</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Regarding regional impacts of an RES also raised in many of the opening statements different parts of the country have access to different types of renewable energy with different cost and performance characteristics</t>
+          <t>Yes it is in my opinion highly likely that any living thing that is exposed to high enough concentrations obviously if it is oil and dispersant mixtures are very likely to be poisoned</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>The markets are so tight though that if we can moderate demand a little bit our analysis using the same computer models that DOE uses indicates that with 4 to 5 percent energy savings we can reduce these prices over the next decade by 20 percent or more</t>
+          <t>My testimony aligns with the following points America is facing two national security threats one around climate change and the other around the US nuclear power enterprise</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -5278,27 +5278,27 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>It is time for Congress to provide an updated National Energy policy</t>
+          <t>We see this in the programs that have received proposed budget increases like the 29 billion for the Office of Energy Efficiency and Renewable Energy a 40 percent increase</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>In San Joaquin Valley the stationary sources which include agriculture oil and gas production your ma and pa operations all the way to your biggest manufacturing they make up only 15 percent of the pollution now because we have imposed the toughest regulations in the nation on them</t>
+          <t>It is a lesson for all of us as we consider the location of new LNG terminals as we become more dependent on natural gas</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Under the Clear Skies Initiative all Americans will benefit from cleaner air as emissions of the major pollutants from power generation SOINF2INF NOINFXINF and mercury are reduced by roughly 70 percent</t>
+          <t>I think we need to increase conservation and weatherization</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -5308,27 +5308,27 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Ed Whitfield This mornings hearing focuses on EPAs proposed Clean Power Plan which would impose federal limits on carbon dioxide emissions from each states electricity system</t>
+          <t>Secondly the other consistent thing in that report as I stated earlier is the natural gas impact is having on the marketplace in general in terms of retiring old inefficient plants</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>There have been provisions I have disagreed with and think we should revisit like on biomass from forests not counting toward renewable fuel standards seems to be rather absurd</t>
+          <t>The principal environmental benefits associated with coal gasification as compared to coal combustion processes are in the short term significantly lower emissions of serious air pollutants such as sulfur dioxide NOINFXINF and I should say almost virtual removal of volatile mercury</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Why should we wait for a great big energy bill which may or may not come during your lifetime and mine</t>
+          <t>Forcing fuel switching from coal to natural gas is a tool of compliance by contrast maximizes the costs of compliance</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5338,7 +5338,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>When they heard about President Obamas proposal to put a tax of 10 on a barrel of American crude oil they all said what the heck what is he thinking</t>
+          <t>And Section 401a1 of the Clean Water Act precludes the Commission from licensing a hydroelectric project unless the project has first obtained state water quality certification or a waiver thereof</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -5348,7 +5348,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>So that is why I am grateful to you Mr Chairman for crafting the Energy and Revenue Enrichment Act to give the Department of Energy the flexibility it needs to temporarily reenrich tails at Paducah and Portsmouth</t>
+          <t>Mercury that ends up in fish may originate as emissions to the air</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -5358,77 +5358,77 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>How many are actively involved in producing ethanol or biodiesel portion of the refineries</t>
+          <t>We have one of the greatest resources in the world and right down the road here 30 minutes from here Eastman Chemical Corporation uses 60 carloads of coal every day that you all produce and a railroad takes to them</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>If thats the case for a State like Illinois if 40 percent of the power that we generate is nuclear what would that do to our national energy policy and the pocketbook issues what would it do to the price for the individual consumers</t>
+          <t>The Clean Power Plan I think makes a lot of sense moving forward</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>US dependence on imported oil has fallen since the RFS was enacted from 60 percent in 2005 to 40 percent today</t>
+          <t>I think in the latter part of December in the midcontinent area if you went out and tried to buy gas it was very difficult</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Shell was one of the first integrated oil companies to acknowledge the impacts of human activity on the climate and we believe now is the time to act</t>
+          <t>I hope in my discussions with you today that that commitment on my part will come through to you in talking a little bit about what I plan to do and how I plan to bring my experience and my expertise that I have gained in the private sector in the nuclear industry over the years into this project to move it forward smartly in the time that I am in this job and that is my commitment to you</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>So this slide shows how you would replace one nuclear reactor that is 1154 megawatts with wind</t>
+          <t>And that is the kind of dual standard that the Republicans want us to accept even as oil has dropped from 57 percent imported to 45 percent imported since Bush walked out the door in January</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>In his address to Congress earlier this week President Obama outlined his vision for a clean energy future that will not only help turn around our ailing economy but also drive new investment and job growth for decades to come</t>
+          <t>So we could take compliance I think from their current permit applications or new permit applications from generating stations and take that data put it into a database and ultimately from that use it to determine a greenhouse gas performance standard for particular plants that were into the interconnect</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Muir is concerned only about carbon</t>
+          <t>So can you explain to why you thinkyou know I realize you decrease emissions but I just am not convinced that that particularly will change much the overall lifecycle of carbon emissions with the batterythe development of the batteries and what it costs to do that when you plug it in how the power is generated</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>So is the EPA do you have the statutory authority are you considering relaxing the ethanol mandate due to the corn shortage</t>
+          <t>While I have said on several occasions that the Yucca Mountain project merits independent and objective oversight I am also concerned that this Subcommittees myopic focus on Yucca Mountain has diverted its attention from other pressing nuclear safety issues</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -5438,7 +5438,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Second with regard to clean coal as you know we dont support subsidies for coal</t>
+          <t>However we remain at a regional disadvantage for access to much of the existing renewable energy options</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5448,17 +5448,17 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>But on the other hand those that want to have exploration we think that the country and the committee should stand behind those States if the prospects are indeed there</t>
+          <t>There are tremendous opportunities for further job growth in the clean energy sector but to harness that potential we need to continue to evaluate and recalibrate Federal policies</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>VW willfully and knowingly cheated having installed engine software in 480000 diesel vehicles to defeat emissions tests</t>
+          <t>Also consistent with NPC recommendations the program promotes maximum collaboration between the federal government industry and academia and it establishes a program that is an order of magnitude larger than the Department of Energys existing gas supply RD program</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5468,7 +5468,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>With regards to research and investment I do agree with Dr Howard that we believe all sorts of fuel need to be optimized</t>
+          <t>The Department of Energys 32 billion budget proposal serves as a reminder of the broad range of defense science energy and environmental activities that your agency pursues to perform its really important critical I would say national and energy security missions</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -5478,57 +5478,57 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>The electric mix ofin electricity generation today as I understand it is coal 45 percent nuclear 20 natural gas 23 hydro seven and renewable 36</t>
+          <t>Our esteemed colleague Chairman Emeritus John Dingell on the Democratic side who led the negotiations on the 1990 Clean Air Act Amendments wrote I would have difficulty concluding the HouseSenate conferees who rejected the Senate greenhouse gas regulatory provisions contemplated regulating greenhouse gas emissions or addressing global warming under the Clean Air Act</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>As states get closer to the implementation date for their fuel programs the greater the temptation to change the date rather than deal with the uncertainty</t>
+          <t>An ethanol plant in these areas is an economic engine that revitalizes those areas in demonstrable ways</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>However we remain at a regional disadvantage for access to much of the existing renewable energy options</t>
+          <t>Our aim is to strengthen energy markets and encourage innovation throughout the electricity sector giving consumers more choice and greater control over their energy decisions while also benefiting the environment</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Above all the rhetoric and the different reasons why many of us oppose the Yucca Mountain project this committee and this Congress must ask itself whether the Nuclear Waste Policy Act has been followed as Congress intended</t>
+          <t>Second EPA is about to begin an emissions trading program for nitrogen oxide in the northeast and midwest which will also bring about significant reductions beginning in 2003</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Even using power from traditional coal plants to charge a plug in hybrid is environmentally superior for CO2 and criteria pollutants to driving a regular Toyota Prius</t>
+          <t>Make no mistake the Clean Power Plan is coerciveeither a state comes up with a plan that meets with EPAs approval or EPA will impose its own Federal Implementation Plan</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>First it is the tax subsidies for unconventional energy that by far have the most detrimental effects on markets prices and consumers</t>
+          <t>We all want safer and more fuel efficient cars</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -5538,17 +5538,17 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Our environment and our economy depend on congressional action to confront the threat of climate change and secure our energy independence</t>
+          <t>So the advantages that you would get from lets say maybe keeping a lid on the Brent price which affects gasoline pricethat advantage still exists and meanwhile the refineries are still operating</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>If you export natural gas you factor into that equation the effect on US consumers and whether it is in the best interest of the United States</t>
+          <t>However it is doubtful that hydrogen demand will increase so rapidly as to adversely affect the supply of natural gas</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -5558,57 +5558,57 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>In both cases cost is a key consideration helping determine which pollution sources should reduce emissions by how much and on what timetable</t>
+          <t>As we know natural gas prices have risen sharply and likely will not drop substantially until more production goes on line in the United States</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>I think in the latter part of December in the midcontinent area if you went out and tried to buy gas it was very difficult</t>
+          <t>They include the bioremediation of mixed waste at many of the contaminated DOE sites the witchs brew that we have left from the legacy of cold war also the enhanced sequestration of carbon by the terrestrial and marine biosphere in order to reduce the atmospheric concentrations of greenhouse gases in the atmosphere and also as has already been mentioned the production of clean fuels such as hydrogen through the miracles of biotechnology</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Siemens Ford and Volvo have all made engines that reduce particulate emissions by more than 90 percent and nitric oxides similarly remarkably reduced</t>
+          <t>In any event we recognize that projections of energy markets are highly uncertain and are subject to many random events that cannot be foreseen</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Everyone in Washington is interested in renewables</t>
+          <t>We are now in the midst of preparations for an important transitionfrom the prelicensing role defined for NRC in statute to the role of regulator and licensing authorityif a decision is made to authorize the Department of Energy DOE to submit a license application for Yucca Mountain</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Boutique fuels only result in supply problems when a refinery problem or pipeline outage occurs</t>
+          <t>For example if the fuel efficiency of our personal vehicle fleet was 42 miles per gallon today rather than 21 miles per gallon US oil demand would be lower by 4 million barrels per day oil markets would have spare capacity and the impact of any gasoline price spike would be far smaller</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>I am pleased to present the administrations views on the need for comprehensive energy legislation</t>
+          <t>The Clean Power Plan as proposed will call that into question</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -5618,7 +5618,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>What do you see as the Federal Governments proper role in encouraging the use of alternative fuels in vehicles</t>
+          <t>Has the RFS reduced the need for foreign oil</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -5628,17 +5628,17 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Senator Daschle has introduced S 670 which adopts an ethanol mandate similar to the approach to S 2962</t>
+          <t>Americas hydrocarbon renaissance has given us the gift of time</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>I also urge that any proposal considered by this committee have the best interests of electricity consumers in mind including the promotion of conservation and renewable and innovative energy sources</t>
+          <t>If the best and the brightest of our young people continue to see that the oil and gas business is a losing proposition we wont get that 32 trillion</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -5648,27 +5648,27 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>For example todays efficiency standards for medium and heavyduty trucks are reducing emissions from those vehicles</t>
+          <t>I think essential to the Yucca Mountain project to store the spent fuel down there would be a rail line</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>American innovation and our abundant energy resources can and should be leveraged to protect our allies around the world from unreliable and unfriendly regimes and promote our interests</t>
+          <t>I am pleased to report that last week the House overwhelmingly passed the Nuclear Waste Policy Amendments Act of 2018</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>And a lot of it had to do with deregulating our domestic environment and making a whole suite of challenges and deciding that we were going to commit to this internationally connected and efficient market for oil and gas and things like that</t>
+          <t>Dr Ebinger paints a very positive picture resulting from lifting the crude oil export ban reporting a gain in GDP over the next 25 years of 600 billion orbillion to 18 trillion</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -5678,37 +5678,37 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Renewable diesel that lowers agricultural emissions is fully compatible with existing diesel assets and has a place at the table too</t>
+          <t>Technology can also be a driver for increased energy efficiency and Reps McNerney Welch and Kinzinger have introduced bills that analyze and support new technologies in smart buildings and water systems</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Integrity Management Rule for Natural Gas Transmission OPS issued the integrity management rule for natural gas transmission lines on December 12 2003</t>
+          <t>NRC currently bills its licensees or applicants about 263 per hour which is a high burden on companies seeking to develop new nuclear technologies</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>We do send ethanol by barge as well but I think in this particular study what we are looking at is toxicity</t>
+          <t>Because the States want to be able to enforce requirements on others where they dont have control in their own jurisdiction to make sure that their neighboring States or regions are reducing the emissions</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Well from my perspective its put the oil industrys perspective first and the rural communities have taken a lot of abuse through these Small Refinery Exemptions</t>
+          <t>In his address to Congress earlier this week President Obama outlined his vision for a clean energy future that will not only help turn around our ailing economy but also drive new investment and job growth for decades to come</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -5718,57 +5718,57 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>If we really do something about climate change by reducing COINF2INF emissions and reduced demand for oil can that help us restrain the price increases of oil</t>
+          <t>It has been 30 years since Congress designated Nevadas Yucca Mountain as a secure site for our Nations nuclear wastewater</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>A leading example is the Energy Star Program which is delivering significant results</t>
+          <t>Mr Roberts you mentioned the United Mine Workers in Appalachia and Illinois and I want you to know that there are a lot of them in my district in Western Kentucky and we are excited about Peabody Coal Company being ready to open up a new mine and also entered with a consortium on a power plant also that will use some local coal</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Second did the Department of Energy sufficiently monitor the financial status of Solyndra after loan disbursements began particularly as the market forces seemed to be against them</t>
+          <t>Thus those tax policies stifled the industry at a time when US energy demand was increasing significantly</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>As Member of Congress from East Harris County and Houston Texas I have just literally hundreds of people who work offshore offshore Texas offshore literally all over the world and along with our infrastructure we still produce oil and natural gas in a very urbansuburban area but we also have refineries and chemical plants who need that product that is being produced</t>
+          <t>This added step of accountability is crucial to keep an account of delays and avoid the increasing backlog of hydropower relicensing</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>I guess since I am from Louisiana I am associated with the sugar industry and I want to talk about cellulosic ethanol or ethanol from sugar but I have heard about hybrids I have heard about coal cellulosic corn ethanol</t>
+          <t>Consumers determine energy consumption every day through their purchasing decisions and the use of the products they buy</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>I mean it seemed to me we ran a 2 to 3 natural gas for a long time</t>
+          <t>We know that but you seem to be saying that so many on the other side that it is all due to man or burning coal fossil fuels and that just simply doesthat is why there is an ongoing debate on it and you are coming from your position</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -5778,7 +5778,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>The Department of Energy was supposed to select two scientifically appropriate sites one east of Mississippi and one west of Mississippi River</t>
+          <t>Diesel trucks are paying 450 a gallon for diesel</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -5788,57 +5788,57 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>As you know Mr Chairman there have been many developments in the Nations energy portfolio since FERC issued Order No</t>
+          <t>In this same vein expert witnesses are called before us today to discuss policies to deeply decarbonize our economy and strengthen our infrastructure against threats like climate change</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Im surprised Mr Garman didnt sort of agree with what I told him about petroleum</t>
+          <t>I mean that is why we want gasoline or diesel or biofuels or something</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>OK Now those greenhouse gas emissions are not only CO2</t>
+          <t>As a physician and someone who represents constituents who have experience too many environmental injustices I am committed to working with members of this committee to create a cleaner and healthier environment for all</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>And I guess it is a fine line between market uncertainty and price gouging in many of our minds because people price gouge because consumers are uncertain and they know gas costs are rising correct</t>
+          <t>Therefore the benefits resulting from the reliable and costeffective provision of generation transmission and distribution service flow directly to public power customers and communities</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Four US States Minnesota Montana Idaho and North Dakota account for 75 percent of all the natural gas brought into the United States via pipeline</t>
+          <t>Last fall we published a report Biofuels Issues and Trendsit is attached to my testimonyto provide an overview of the dynamics of production consumption trade in ethanol biodiesel and cellulosic fuels</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Of course some might argue that there is big difference between running a coaltochemicals manufacturing facility and a coaltoelectricity power plant</t>
+          <t>COMMINGLING OF DIVERGENT COMPLIANT FUELS First Congress should adopt a legislative provision to permit the commingling of divergent compliant fuels</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -5848,7 +5848,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>I think what the President is most concerned about is that he would like to move the energy agenda forward</t>
+          <t>So that is why I am grateful to you Mr Chairman for crafting the Energy and Revenue Enrichment Act to give the Department of Energy the flexibility it needs to temporarily reenrich tails at Paducah and Portsmouth</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -5858,17 +5858,17 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>If we develop our energy resources while vigorously protecting the health and safety of all Americans our Nation can realize enormous economic and energy security benefits</t>
+          <t>In addition the quadrennial energy review will provide an opportunity to look at obstacles to building gathering lines that would allow you to capture natural gas</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Notably the agencies appearing today along with many others signed an MOU in April seeking to establish a cooperative relationship and expedite authorizations of major infrastructure projects including hydropower facilities</t>
+          <t>My home State of New Jersey has a draft energy master plan that calls for the electrifying the building sector by 2050 and reducing the reliance on natural gas for heating homes and buildings</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -5878,7 +5878,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>What type of an impact would meeting the goals of the Renewable Fuel Standard have on jobs here in America</t>
+          <t>Well let me just ask you this then are you basing determinations on LNG exports in part on those discussions with the G7 nations</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -5888,7 +5888,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>I think one of the things just to add is our COINF2INF emissions from energy consumption are down 13 percent since 2007 so this is already actually happening</t>
+          <t>And there have been a few sites like in Monroe Michigan where there is actually an assembly plant for wind energy</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -5898,17 +5898,17 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>In 2017 US carbon emissions were the lowest they have been since 1992 and are projected to remain steady in upcoming years more than 10 percent below 2005 levels</t>
+          <t>Hydro provides six to seven percent of all electricity generation and nearly half of all renewable generation making hydro the largest provider of renewable electricity</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>For example should we use natural gas directly for transport or convert it to hydrogen first</t>
+          <t>And at that time and today state regulators agree that users of electricity from nuclear power plants should pay for the Federal nuclear waste management and disposal program</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -5918,27 +5918,27 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>that material out to do exactly what Canada is doing to do exactly what needs to happen on the FremontWinema National Forests where you have more than 200000 acres of federal forestland that is exactly that way buginfested lodge pole pine when that material comes out why in the Devil do we say it is not renewable and cant be turned into pucks like this to help reduce carbon from coal</t>
+          <t>Energy efficiency helps meet our energy needs without hurting the environment</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>The President proposed a clean energy standard to increase the amount of energy we get from renewable sources of energy as well as from nuclear and advanced natural gas plants similar to what Mr Barton proposed from the last Congress</t>
+          <t>Second with regard to clean coal as you know we dont support subsidies for coal</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>For these technologies air pollutant emissions will be associated only with the transport of the hydrogen to the point of use</t>
+          <t>Coalfired electricity is only cheap if one ignores the health and economic costs</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -5948,47 +5948,47 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>This is clear in the repeated attacks on our oil and natural gas industry and its people which has provided tremendous opportunity and driven advances in cleaner energy generation that are benefiting the globe</t>
+          <t>The Energy and Commerce Committee should continue to lead the effort to ensure the Federal government meets is moral and fiduciary responsibility to clean up its defense waste and ensure the permanent safe disposal of spent nuclear fuel</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Through research and demonstration of hydrogen generation and storage technology we will be able to gain the necessary safety knowledge which will lead to data driven codes and standards that do not currently exist</t>
+          <t>The USGS has actively participated in two previous Federal reviews of MTBE and other oxygenates in gasoline</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>I look forward to working with you on these exciting new initiatives to take action on climate change and expand our clean energy economy</t>
+          <t>Administrator Jackson and Rear Admiral Watson yesterday the Coast Guard ordered all ships participating in the BP oil spill cleanup to cease operations after crew members on three boats reported health problems</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>bullet First we need a strong and sustained push from Congress and the Administration to support biofuel production including nextgeneration cellulosic ethanol</t>
+          <t>Well the World Resources Institute doesnt take a particular position on this specific issue but certainly by reducing these upstream methane emissions we could ensure that natural gas is lowercarbonemittingor lowergreenhousegasemitting than coal or oil when oil and diesel fuel is used for transportation</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>I am just concerned that EPA has taken the environmental cop off the beat and will go on polluting without fear of repercussions</t>
+          <t>Secretary Hogan in 2007 Congress passed the Energy Independence and Security Act</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -5998,27 +5998,27 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>The job creators the haulers the steel mills have all lost the ability to create jobs because of a policy that was designed and I will just end on this a policy that was designed to protect us against state oil interests</t>
+          <t>The company also engages in new hydropower development through the building of new plants at existing dams</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>And so I think that to help wean Europe off of Russian energy this might be a good thing</t>
+          <t>Accordingly I request that the Agency work with Congress particularly Chairman Shimkus Mr Welch and me as we try to develop interim and longterm solutions fuel solutions that are good for the environment and good for auto mileage good for the American consumers good for the agricultural and ethanol interest and really good for all impacted stakeholders</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>The Department of Energy and the National Nuclear Security Administration are fully committed to the homeland security mission and the successful establishment of the Department of Homeland Security</t>
+          <t>Because they will now have the controlling interest in that oil field so they can do what</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -6028,21 +6028,91 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Some Republican Members cannot seem to decide whether they like cheap natural gas or see it as a threat that must be overcome to protect the coal industry</t>
+          <t>This has to do with lowenriched uranium fuel</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Because electricity markets are connected by wires different pollution standards promote a survival of the filthiest market where the power plants that are the dirtiest run harder because they can slightly underbid cleaner generators</t>
+          <t>A 10 percent reduction in environmental management an 8 percent reduction in the Office of Science 86 percent reduction in energy efficiency and renewable energy</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>When I looked into the composition of the drilling muds and drilling fluids I hit the same kind of data gaps that Dr Reddy described</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>This should not be styled to effectively mandate ethanol use however</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>And one of the big dilemmas that we face and it is being argued here I think largely around this question of decoupling is what is the dislocation that occurs when you go from one energy policy to a new one</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>The Department of Energy was supposed to select two scientifically appropriate sites one east of Mississippi and one west of Mississippi River</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Integrity Management Rule for Natural Gas Transmission OPS issued the integrity management rule for natural gas transmission lines on December 12 2003</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Sometimes we will give them energy sometimes they will give us energy</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>And then finally we should encompass principles that do not harm American energy workers that help to enhance their training and capacity to increase their economic success and security</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
